--- a/document/処理フロー.xlsx
+++ b/document/処理フロー.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.9\public\00.個人フォルダ\23-國本\Pepper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4668"/>
   </bookViews>
   <sheets>
-    <sheet name="全体フロー(ボックス)" sheetId="9" r:id="rId1"/>
-    <sheet name="全体フロー " sheetId="8" r:id="rId2"/>
-    <sheet name="QRコード有無" sheetId="2" r:id="rId3"/>
-    <sheet name="QRコード取得" sheetId="4" r:id="rId4"/>
-    <sheet name="商品有無" sheetId="6" r:id="rId5"/>
-    <sheet name="窓口誘導" sheetId="7" r:id="rId6"/>
+    <sheet name="全体フロー " sheetId="8" r:id="rId1"/>
+    <sheet name="QRコード有無" sheetId="2" r:id="rId2"/>
+    <sheet name="QRコード取得" sheetId="4" r:id="rId3"/>
+    <sheet name="商品有無" sheetId="6" r:id="rId4"/>
+    <sheet name="窓口案内" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="101716"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -151,78 +144,133 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340856</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>322231</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>65808</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>407930</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147040</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8265656" y="2197171"/>
+          <a:ext cx="2505474" cy="3270014"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18257</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22062</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>120549</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="321" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="145" idx="2"/>
+          <a:endCxn id="148" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="6709873" y="4413503"/>
+          <a:ext cx="6127773" cy="4880605"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="正方形/長方形 252"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="95250"/>
-          <a:ext cx="12952381" cy="6933333"/>
+          <a:off x="6176682" y="4052047"/>
+          <a:ext cx="636494" cy="259978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>520518</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>107165</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7900146" y="6376147"/>
-          <a:ext cx="486901" cy="320077"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -249,15 +297,24 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>NO</a:t>
+            <a:t>ＹＥＳ</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -266,32 +323,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>110382</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>69065</xdr:rowOff>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="正方形/長方形 126"/>
+        <xdr:cNvPr id="187" name="正方形/長方形 186"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6208059" y="7070912"/>
-          <a:ext cx="558617" cy="214741"/>
+          <a:off x="6248400" y="2734234"/>
+          <a:ext cx="636494" cy="259978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -318,15 +373,24 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>YES</a:t>
+            <a:t>ＹＥＳ</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -334,102 +398,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163789</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>166411</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>125093</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2988</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6264088" y="5087470"/>
-          <a:ext cx="558617" cy="214741"/>
+          <a:off x="8088589" y="1789952"/>
+          <a:ext cx="1058399" cy="289859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>YES</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7720854" y="4303059"/>
-          <a:ext cx="952500" cy="273423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -460,8 +453,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>キャンセル</a:t>
           </a:r>
@@ -469,8 +463,9 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -479,33 +474,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546284</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>118782</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>176307</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>528172</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>135219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9017931" y="3099547"/>
-          <a:ext cx="1347511" cy="273423"/>
+          <a:off x="8101107" y="5458760"/>
+          <a:ext cx="961465" cy="289859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -536,8 +529,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>キャンセル</a:t>
           </a:r>
@@ -545,8 +539,9 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -555,16 +550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>148932</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>51134</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>92901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>117147</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -573,15 +568,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10701618" y="2241175"/>
-          <a:ext cx="1266264" cy="320077"/>
+          <a:off x="8073732" y="3180025"/>
+          <a:ext cx="553569" cy="262213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -608,36 +601,25 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:rPr lang="ja-JP" altLang="en-US" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>QR</a:t>
+            <a:t>ＮＯ</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>コード無し</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -646,154 +628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147354</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>125094</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="正方形/長方形 115"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6198530" y="3048000"/>
-          <a:ext cx="558617" cy="214741"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>YES</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>443187</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>73547</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="正方形/長方形 113"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7704599" y="2263588"/>
-          <a:ext cx="486901" cy="320077"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>NO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>425829</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:colOff>494339</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:colOff>433828</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -802,15 +646,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4661653" y="2162735"/>
-          <a:ext cx="974907" cy="437031"/>
+          <a:off x="4761539" y="1745554"/>
+          <a:ext cx="1158689" cy="355388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -841,6 +683,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>タイムアウト</a:t>
           </a:r>
@@ -852,15 +697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>106267</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76853</xdr:rowOff>
+      <xdr:colOff>111577</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>109306</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>120851</xdr:rowOff>
+      <xdr:colOff>115231</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67064</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -872,9 +717,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6762561" y="861265"/>
-          <a:ext cx="3039" cy="357762"/>
+        <a:xfrm flipH="1">
+          <a:off x="6817177" y="629406"/>
+          <a:ext cx="3654" cy="268931"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -902,15 +747,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>208077</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>144076</xdr:rowOff>
+      <xdr:colOff>217042</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>4455</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76853</xdr:rowOff>
+      <xdr:colOff>13420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -919,8 +764,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6259253" y="457841"/>
-          <a:ext cx="1006614" cy="403424"/>
+          <a:off x="6313042" y="197865"/>
+          <a:ext cx="1015578" cy="443765"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -950,8 +795,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>Start</a:t>
@@ -960,8 +805,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
@@ -971,16 +816,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>382802</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>120851</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>500377</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>440925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>156243</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>332377</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102456</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -989,8 +834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5828861" y="1219027"/>
-          <a:ext cx="1873476" cy="506040"/>
+          <a:off x="5377177" y="898337"/>
+          <a:ext cx="2880000" cy="534155"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -998,13 +843,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1017,31 +862,19 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>QR</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>有無</a:t>
+            <a:t>コード有無</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1051,15 +884,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67238</xdr:rowOff>
+      <xdr:colOff>119097</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114854</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>93954</xdr:rowOff>
+      <xdr:colOff>120056</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29139</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1067,13 +900,1520 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="117" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6824697" y="2669040"/>
+          <a:ext cx="959" cy="352681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508856</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340856</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート : 判断 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5385656" y="1725301"/>
+          <a:ext cx="2880000" cy="943739"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>有効な返答？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111577</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120056</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62756</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6817177" y="1432492"/>
+          <a:ext cx="8479" cy="292809"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508855</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221876</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>124071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="22" idx="1"/>
+          <a:endCxn id="148" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="5385655" y="2250144"/>
+          <a:ext cx="932221" cy="8093692"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -127419"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119097</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119676</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="117" idx="2"/>
           <a:endCxn id="104" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6768353" y="3048003"/>
-          <a:ext cx="2795" cy="340480"/>
+          <a:off x="6824697" y="3967291"/>
+          <a:ext cx="579" cy="467212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508476</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340476</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="フローチャート : 定義済み処理 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5385276" y="4434503"/>
+          <a:ext cx="2880000" cy="534777"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>QR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コード取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120221</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>125233</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>55063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="106" idx="2"/>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6825821" y="6475081"/>
+          <a:ext cx="5012" cy="393158"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514033</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>346033</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="フローチャート : 判断 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5390833" y="5457266"/>
+          <a:ext cx="2880000" cy="1017815"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>取得できた？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514033</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221877</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>124071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="106" idx="1"/>
+          <a:endCxn id="148" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="5390833" y="5966174"/>
+          <a:ext cx="927044" cy="4377662"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -128130"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>346033</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>84868</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="106" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8270833" y="5966174"/>
+          <a:ext cx="1567635" cy="5684"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>500098</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347696</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="フローチャート : 判断 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5376898" y="2968282"/>
+          <a:ext cx="2895598" cy="930725"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＱＲコード有り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18257</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>407931</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>124070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="28" idx="2"/>
+          <a:endCxn id="148" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="7053443" y="6626148"/>
+          <a:ext cx="3997701" cy="3437674"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347696</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>308599</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="117" idx="3"/>
+          <a:endCxn id="145" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="8272496" y="3433252"/>
+          <a:ext cx="3008903" cy="393"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>308599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>345122</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="フローチャート: 処理 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11281399" y="3076585"/>
+          <a:ext cx="1865323" cy="713334"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>用件を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>店員へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>伝えるよう勧める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221877</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>72199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18256</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>5614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="フローチャート : 端子 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6317877" y="10121634"/>
+          <a:ext cx="1015579" cy="444404"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>End</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119676</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>125233</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="104" idx="2"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6825276" y="5087451"/>
+          <a:ext cx="5557" cy="369815"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>84868</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121391</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="フローチャート: 処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9838468" y="5467185"/>
+          <a:ext cx="1865323" cy="728180"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>また気軽に話しかけて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>欲しい旨を伝える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509021</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>55063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341021</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="フローチャート : 定義済み処理 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5385821" y="6868239"/>
+          <a:ext cx="2880000" cy="560450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品有無</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119615</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120221</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>151119</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6825215" y="7428689"/>
+          <a:ext cx="606" cy="387254"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119615</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>122707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121054</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>39103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6825215" y="8639178"/>
+          <a:ext cx="1439" cy="427384"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508415</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>151119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340415</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>122707</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="フローチャート : 判断 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5385215" y="7632574"/>
+          <a:ext cx="2880000" cy="802860"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品有り？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509854</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>39103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341854</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>75117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="フローチャート : 定義済み処理 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5386654" y="9066562"/>
+          <a:ext cx="2880000" cy="547002"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>窓口案内</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118873</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>26098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>155396</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>86289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="フローチャート: 処理 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8653273" y="7737538"/>
+          <a:ext cx="1865323" cy="730751"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品が無い旨を伝える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340415</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>53093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118873</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>56194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8265215" y="8099813"/>
+          <a:ext cx="388058" cy="3101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18256</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>86290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>441935</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>122728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="85" idx="2"/>
+          <a:endCxn id="148" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="7603277" y="8198469"/>
+          <a:ext cx="1712838" cy="2252479"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120067</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>75117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121054</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>72199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="148" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6825667" y="9613564"/>
+          <a:ext cx="987" cy="508070"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1101,81 +2441,73 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68917</xdr:rowOff>
+      <xdr:colOff>605013</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67238</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22307</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="フローチャート : 判断 159"/>
+        <xdr:cNvPr id="275" name="正方形/長方形 274"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5636559" y="2108388"/>
-          <a:ext cx="2263588" cy="939615"/>
+          <a:off x="6091413" y="6223746"/>
+          <a:ext cx="636494" cy="249519"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>QR</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コード有り？</a:t>
+            <a:t>ＹＥＳ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1184,185 +2516,185 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>109305</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>156243</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475012</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68917</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>418981</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>159295</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="22" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="正方形/長方形 275"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6765599" y="1725067"/>
-          <a:ext cx="2754" cy="383321"/>
+          <a:off x="7790212" y="7711046"/>
+          <a:ext cx="553569" cy="262213"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:cxnSp>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＮＯ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68078</xdr:rowOff>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228921</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152886</xdr:rowOff>
+      <xdr:colOff>603838</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>49947</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="22" idx="1"/>
-          <a:endCxn id="148" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="5701393" y="2680649"/>
-          <a:ext cx="650742" cy="6289666"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="277" name="正方形/長方形 276"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6063344" y="8294913"/>
+          <a:ext cx="636494" cy="245891"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -227503"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68078</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>70037</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="117" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7900147" y="2578196"/>
-          <a:ext cx="885265" cy="1959"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:cxnSp>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＹＥＳ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>516377</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>472914</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>13861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>398970</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76589</xdr:rowOff>
+      <xdr:colOff>412403</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>45647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvPr id="317" name="正方形/長方形 316"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4802627" y="4435929"/>
-          <a:ext cx="1107236" cy="375946"/>
+          <a:off x="4740114" y="5634732"/>
+          <a:ext cx="1158689" cy="372444"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1393,6 +2725,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>タイムアウト</a:t>
           </a:r>
@@ -1401,1434 +2736,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>388683</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>93954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>446141</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>129967</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="フローチャート : 定義済み処理 148"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5834742" y="3388483"/>
-          <a:ext cx="1872811" cy="506660"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>QR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>コード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114264</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>118376</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="106" idx="2"/>
-          <a:endCxn id="53" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6770558" y="5087471"/>
-          <a:ext cx="4112" cy="380999"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38029</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="フローチャート : 判断 159"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5636558" y="4157382"/>
-          <a:ext cx="2268000" cy="930089"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>取得できた？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>キャンセル？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>72839</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228920</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152886</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="106" idx="1"/>
-          <a:endCxn id="148" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="5701391" y="4808125"/>
-          <a:ext cx="650743" cy="4162190"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -191956"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38029</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>72839</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="106" idx="3"/>
-          <a:endCxn id="28" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7904558" y="4622427"/>
-          <a:ext cx="2572942" cy="28014"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="フローチャート : 判断 159"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8785412" y="2095501"/>
-          <a:ext cx="2229970" cy="969308"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>QR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>コード</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>無し</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>キャンセル？</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>514922</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152887</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="28" idx="2"/>
-          <a:endCxn id="148" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="7567939" y="5001546"/>
-          <a:ext cx="3773988" cy="4163551"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>70037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>56031</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="117" idx="3"/>
-          <a:endCxn id="145" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11015382" y="2580155"/>
-          <a:ext cx="1143002" cy="8405"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>56031</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>92554</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="フローチャート: 処理 144"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12158384" y="2241177"/>
-          <a:ext cx="1851876" cy="694765"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>用件を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>店員へ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>伝えるよう勧める</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228921</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>108058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25300</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="フローチャート : 端子 72"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6352135" y="8762201"/>
-          <a:ext cx="1021022" cy="416228"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>End</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114264</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>129967</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114854</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="168" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="104" idx="2"/>
-          <a:endCxn id="106" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="6770558" y="3895143"/>
-          <a:ext cx="590" cy="262239"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>227023</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="フローチャート: 処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10477500" y="4303058"/>
-          <a:ext cx="1851876" cy="694765"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>またのご利用を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>期待する旨を伝える</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>218515</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>84043</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>511320</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>67233</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="117" idx="2"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10032793" y="2932412"/>
-          <a:ext cx="1238249" cy="1503041"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>392205</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>449663</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>13601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="フローチャート : 定義済み処理 148"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5838264" y="5468470"/>
-          <a:ext cx="1872811" cy="506660"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>商品有無</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>118376</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>13601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123668</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="53" idx="2"/>
-          <a:endCxn id="58" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6774670" y="5975130"/>
-          <a:ext cx="5292" cy="344986"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123668</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>16410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>128173</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>102498</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="58" idx="2"/>
-          <a:endCxn id="59" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6779962" y="7076116"/>
-          <a:ext cx="4505" cy="399853"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>201703</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>45633</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>16410</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="フローチャート : 判断 159"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5647762" y="6320116"/>
-          <a:ext cx="2264400" cy="756000"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>商品有り？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>402002</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>102498</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>459460</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>138511</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="フローチャート : 定義済み処理 148"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5848061" y="7475969"/>
-          <a:ext cx="1872811" cy="506660"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>窓口案内</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>596818</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="フローチャート: 処理 84"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9031942" y="6353735"/>
-          <a:ext cx="1851876" cy="694765"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>商品が無い旨を伝える</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>45633</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>109057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="58" idx="3"/>
-          <a:endCxn id="85" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7912162" y="6698116"/>
-          <a:ext cx="1119780" cy="3002"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>272396</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152886</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="85" idx="2"/>
-          <a:endCxn id="148" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="7901314" y="6802090"/>
-          <a:ext cx="1640068" cy="2696382"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>124570</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>138511</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>127110</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>108058</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="59" idx="2"/>
-          <a:endCxn id="148" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6860106" y="8302797"/>
-          <a:ext cx="2540" cy="459404"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3000,8 +2911,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="538523" y="310123"/>
-          <a:ext cx="6081352" cy="7857564"/>
+          <a:off x="538523" y="314885"/>
+          <a:ext cx="6105164" cy="8086164"/>
           <a:chOff x="538523" y="314885"/>
           <a:chExt cx="5755341" cy="7434570"/>
         </a:xfrm>
@@ -4569,7 +4480,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4592,7 +4503,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="331949" y="379911"/>
-          <a:ext cx="5767670" cy="6601354"/>
+          <a:ext cx="5743177" cy="6601354"/>
           <a:chOff x="331949" y="396240"/>
           <a:chExt cx="5743177" cy="6458395"/>
         </a:xfrm>
@@ -5914,7 +5825,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5936,8 +5847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="725178" y="264458"/>
-          <a:ext cx="3423688" cy="4893341"/>
+          <a:off x="729660" y="277905"/>
+          <a:ext cx="3446100" cy="5310200"/>
           <a:chOff x="729660" y="275216"/>
           <a:chExt cx="3446100" cy="5226828"/>
         </a:xfrm>
@@ -6878,7 +6789,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6920,7 +6831,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6955,7 +6866,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7166,11 +7077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7181,23 +7090,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -7205,7 +7097,7 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7214,7 +7106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
@@ -7223,7 +7115,7 @@
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7231,7 +7123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -7240,7 +7132,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7249,7 +7141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
@@ -7258,7 +7150,7 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/処理フロー.xlsx
+++ b/document/処理フロー.xlsx
@@ -11,15 +11,19 @@
     <sheet name="QRコード有無" sheetId="2" r:id="rId2"/>
     <sheet name="QRコード取得" sheetId="4" r:id="rId3"/>
     <sheet name="商品有無" sheetId="6" r:id="rId4"/>
-    <sheet name="窓口案内" sheetId="7" r:id="rId5"/>
+    <sheet name="窓口誘導" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -27,6 +31,12 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -52,8 +62,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1071,16 +1082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508855</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>453692</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>35862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>221876</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124071</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508857</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1088,18 +1099,16 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="22" idx="1"/>
-          <a:endCxn id="148" idx="1"/>
+          <a:endCxn id="43" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="5385655" y="2250144"/>
-          <a:ext cx="932221" cy="8093692"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2892092" y="2158576"/>
+          <a:ext cx="2493565" cy="3197196"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -127419"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="19050">
@@ -1362,35 +1371,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514033</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>4645</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>453692</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>221877</xdr:colOff>
+      <xdr:colOff>221878</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>124071</xdr:rowOff>
+      <xdr:rowOff>120548</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="107" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="106" idx="1"/>
+          <a:stCxn id="43" idx="2"/>
           <a:endCxn id="148" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="5390833" y="5966174"/>
-          <a:ext cx="927044" cy="4377662"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2680692" y="6280506"/>
+          <a:ext cx="3848585" cy="3425786"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -128130"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="19050">
@@ -1690,17 +1697,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>用件を</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -1710,7 +1706,31 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>店員へ</a:t>
+            <a:t>店員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用件を</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -1907,7 +1927,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>また気軽に話しかけて</a:t>
+            <a:t>またのご利用をお願いする</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -1917,20 +1937,6 @@
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>欲しい旨を伝える</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2219,7 +2225,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>窓口案内</a:t>
+            <a:t>窓口誘導</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2281,7 +2287,29 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>商品が無い旨を伝える</a:t>
+            <a:t>商品が無いことを伝え</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メールの再確認を促す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2734,6 +2762,148 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167152</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="フローチャート: 処理 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1959429" y="5355772"/>
+          <a:ext cx="1865323" cy="713335"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ロボアプリを終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>させる旨を伝える</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167152</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514033</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="106" idx="1"/>
+          <a:endCxn id="43" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3824752" y="5712440"/>
+          <a:ext cx="1566081" cy="7204"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7075,15 +7245,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/document/処理フロー.xlsx
+++ b/document/処理フロー.xlsx
@@ -14,134 +14,19 @@
     <sheet name="窓口誘導" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">QRコード取得!$A$1:$J$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">QRコード有無!$A$1:$J$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'全体フロー '!$A$1:$V$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">商品有無!$A$1:$S$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'全体フロー '!$A$1:$J$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">窓口誘導!$A$1:$S$49</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>miko</author>
-  </authors>
-  <commentList>
-    <comment ref="Q8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>音声出力１:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-店員に用件を伝えるよう勧める</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">音声出力２:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">またのご利用をお願いする
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">音声出力３:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">ロボアプリを終了させる
-旨を伝える
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">音声出力４:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>商品が無いことを伝え
-メールの再確認を促す</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -149,21 +34,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -197,7 +67,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -290,65 +160,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>251012</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1117" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="547" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6019800" y="2804161"/>
-          <a:ext cx="251012" cy="4130935"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1957</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -357,8 +178,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2407920" y="4023360"/>
-          <a:ext cx="1805940" cy="245797"/>
+          <a:off x="3003176" y="3012142"/>
+          <a:ext cx="1201271" cy="252969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -390,7 +211,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -400,7 +221,7 @@
             </a:rPr>
             <a:t>取得成功</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -415,26 +236,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600632</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600634</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1344</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvPr id="131" name="正方形/長方形 130"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6018452" y="2316480"/>
-          <a:ext cx="2407922" cy="243840"/>
+          <a:off x="3603812" y="1631578"/>
+          <a:ext cx="1202614" cy="251011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -466,83 +287,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>キャンセル</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="正方形/長方形 130"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4213861" y="2316480"/>
-          <a:ext cx="2407919" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -554,7 +299,7 @@
             <a:t>QR</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -565,7 +310,7 @@
             </a:rPr>
             <a:t>コード無し</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -581,84 +326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="601980" y="1584960"/>
-          <a:ext cx="2407920" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>タイムアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -667,8 +344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009901" y="121920"/>
-          <a:ext cx="1203959" cy="487680"/>
+          <a:off x="2402542" y="376518"/>
+          <a:ext cx="1201270" cy="251013"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -694,7 +371,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -704,7 +381,7 @@
             </a:rPr>
             <a:t>Start</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -719,16 +396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -737,8 +414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="853440"/>
-          <a:ext cx="1203960" cy="487680"/>
+          <a:off x="2402541" y="878542"/>
+          <a:ext cx="1201271" cy="251012"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -764,7 +441,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -772,28 +449,12 @@
             <a:t>QR</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>有無</a:t>
+            <a:t>コード有無</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -802,16 +463,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -820,8 +481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="1584960"/>
-          <a:ext cx="1203960" cy="487680"/>
+          <a:off x="2402541" y="1380566"/>
+          <a:ext cx="1201271" cy="502023"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -862,7 +523,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -878,16 +539,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -896,8 +557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2407920" y="2316480"/>
-          <a:ext cx="1805940" cy="243840"/>
+          <a:off x="3003176" y="1882589"/>
+          <a:ext cx="1201271" cy="251012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -929,7 +590,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -940,7 +601,7 @@
             <a:t>QR</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -950,7 +611,7 @@
             </a:rPr>
             <a:t>コード有り</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -965,16 +626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600347</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -986,9 +647,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4191000" y="2438400"/>
-          <a:ext cx="0" cy="609600"/>
+        <a:xfrm flipH="1">
+          <a:off x="3002888" y="1882589"/>
+          <a:ext cx="288" cy="384138"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1000,7 +661,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -1015,16 +676,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>6393</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14014</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1033,8 +694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="2560320"/>
-          <a:ext cx="1200693" cy="494073"/>
+          <a:off x="2402541" y="2266727"/>
+          <a:ext cx="1199348" cy="257405"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1060,7 +721,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1068,28 +729,12 @@
             <a:t>QR</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>取得</a:t>
+            <a:t>コード取得</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1098,16 +743,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8967</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1120,8 +765,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3611880" y="3779520"/>
-          <a:ext cx="1" cy="496646"/>
+          <a:off x="3003176" y="3012142"/>
+          <a:ext cx="1" cy="385484"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1133,7 +778,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -1148,16 +793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1166,8 +811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009901" y="3291840"/>
-          <a:ext cx="1203959" cy="487680"/>
+          <a:off x="2402542" y="2761131"/>
+          <a:ext cx="1201270" cy="251011"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1192,7 +837,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1208,15 +853,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1226,8 +871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="6705600"/>
-          <a:ext cx="1203960" cy="487680"/>
+          <a:off x="2407920" y="4876801"/>
+          <a:ext cx="1203960" cy="243839"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -1253,7 +898,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -1270,16 +915,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>6393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600347</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1292,8 +937,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4191000" y="3511593"/>
-          <a:ext cx="1" cy="298407"/>
+          <a:off x="3002888" y="2524132"/>
+          <a:ext cx="289" cy="236999"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1305,7 +950,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -1321,15 +966,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>601979</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1344</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1338,8 +983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009899" y="4276166"/>
-          <a:ext cx="1203961" cy="478714"/>
+          <a:off x="2403885" y="3397626"/>
+          <a:ext cx="1199927" cy="242046"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1365,7 +1010,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1379,16 +1024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1401,8 +1046,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4191000" y="5486400"/>
-          <a:ext cx="0" cy="313765"/>
+          <a:off x="3003176" y="3639672"/>
+          <a:ext cx="0" cy="259976"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1414,7 +1059,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -1429,16 +1074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1451,8 +1096,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3611880" y="5495365"/>
-          <a:ext cx="1" cy="478715"/>
+          <a:off x="3003176" y="4150660"/>
+          <a:ext cx="1" cy="367553"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1464,7 +1109,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -1479,16 +1124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1497,8 +1142,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="5007685"/>
-          <a:ext cx="1203960" cy="487680"/>
+          <a:off x="2402541" y="3899648"/>
+          <a:ext cx="1201271" cy="251012"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1523,7 +1168,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1539,16 +1184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1557,8 +1202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009901" y="5974080"/>
-          <a:ext cx="1203959" cy="487680"/>
+          <a:off x="2402542" y="4518213"/>
+          <a:ext cx="1201270" cy="251012"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1584,7 +1229,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1598,16 +1243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1620,8 +1265,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3626069" y="6285186"/>
-          <a:ext cx="1" cy="241738"/>
+          <a:off x="3009900" y="4632961"/>
+          <a:ext cx="1" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1633,7 +1278,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -1648,16 +1293,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1666,8 +1311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4213860" y="5730240"/>
-          <a:ext cx="2407920" cy="243840"/>
+          <a:off x="3603812" y="4016189"/>
+          <a:ext cx="1201270" cy="125506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,7 +1344,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1710,7 +1355,7 @@
             </a:rPr>
             <a:t>商品無し</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1726,16 +1371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600634</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1744,8 +1389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2406574" y="5730241"/>
-          <a:ext cx="1807286" cy="243840"/>
+          <a:off x="3003177" y="4141695"/>
+          <a:ext cx="1201271" cy="251013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,7 +1422,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1787,7 +1432,7 @@
             </a:rPr>
             <a:t>商品有り</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1802,16 +1447,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1823,9 +1468,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="4191000" y="1524000"/>
-          <a:ext cx="1" cy="304800"/>
+        <a:xfrm>
+          <a:off x="3003176" y="1129554"/>
+          <a:ext cx="0" cy="251012"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1837,7 +1482,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -1852,16 +1497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1874,8 +1519,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4191001" y="609600"/>
-          <a:ext cx="0" cy="304800"/>
+          <a:off x="3003176" y="627531"/>
+          <a:ext cx="0" cy="251011"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1887,7 +1532,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -1903,15 +1548,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3587</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1924,8 +1569,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="600637" y="2133600"/>
-          <a:ext cx="1801905" cy="5181600"/>
+          <a:off x="1201271" y="1631578"/>
+          <a:ext cx="1201270" cy="1133138"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1937,7 +1582,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -1952,16 +1597,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600634</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1970,8 +1615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="601980" y="5974080"/>
-          <a:ext cx="1203960" cy="487680"/>
+          <a:off x="600634" y="2764716"/>
+          <a:ext cx="1201272" cy="247426"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1997,7 +1642,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2005,9 +1650,9 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>音声出力３</a:t>
+            <a:t>音声出力</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2022,16 +1667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2040,8 +1685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4815840" y="5974080"/>
-          <a:ext cx="1203961" cy="487680"/>
+          <a:off x="4204447" y="4518213"/>
+          <a:ext cx="1201272" cy="251012"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2067,7 +1712,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2075,9 +1720,9 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>音声出力４</a:t>
+            <a:t>音声出力</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2092,16 +1737,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2110,8 +1755,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4815840" y="2560320"/>
-          <a:ext cx="1203960" cy="487680"/>
+          <a:off x="4204447" y="2266727"/>
+          <a:ext cx="1201271" cy="251012"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2137,7 +1782,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2145,9 +1790,9 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>音声出力１</a:t>
+            <a:t>音声出力</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2163,34 +1808,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>121919</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="594" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="58" idx="2"/>
+          <a:stCxn id="58" idx="3"/>
           <a:endCxn id="542" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5088112" y="5512653"/>
-          <a:ext cx="600635" cy="2394858"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="3603812" y="4016189"/>
+          <a:ext cx="1201271" cy="502024"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="12700">
@@ -2199,7 +1842,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -2214,16 +1857,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601306</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601979</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2236,8 +1879,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1873469" y="5620407"/>
-          <a:ext cx="483476" cy="1813034"/>
+          <a:off x="769283" y="3360084"/>
+          <a:ext cx="2072640" cy="1204633"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2249,7 +1892,7 @@
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -2264,26 +1907,788 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1072" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="547" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3603812" y="1631578"/>
+          <a:ext cx="1201270" cy="635149"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1171" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="542" idx="2"/>
+          <a:endCxn id="148" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="4030981" y="4213861"/>
+          <a:ext cx="365760" cy="1203961"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6621781" y="4267200"/>
-          <a:ext cx="1203961" cy="487681"/>
+          <a:off x="1801906" y="2886636"/>
+          <a:ext cx="1201270" cy="502024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タイムアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="547" idx="3"/>
+          <a:endCxn id="148" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3611880" y="2324101"/>
+          <a:ext cx="1805940" cy="2674620"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12658"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1801906" y="1631578"/>
+          <a:ext cx="1201270" cy="627529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タイムアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="フローチャート : 端子 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2402542" y="251011"/>
+          <a:ext cx="1201270" cy="251013"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="フローチャート : 定義済み処理 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1805940" y="975360"/>
+          <a:ext cx="2407920" cy="243839"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>QR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コードの有無を尋ねる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="フローチャート : 判断 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2414954" y="1969477"/>
+          <a:ext cx="1207477" cy="246184"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5861</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5861</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="フローチャート : 端子 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2413781" y="4998721"/>
+          <a:ext cx="1203960" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>End</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1553</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="28" idx="2"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3009900" y="1219199"/>
+          <a:ext cx="1553" cy="243841"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3009900" y="609600"/>
+          <a:ext cx="1" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="29" idx="1"/>
+          <a:endCxn id="96" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1207478" y="2092568"/>
+          <a:ext cx="1207477" cy="1107831"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4226169" y="1969478"/>
+          <a:ext cx="1207477" cy="246184"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2309,7 +2714,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2317,9 +2722,9 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>音声出力２</a:t>
+            <a:t>タブレット誘導</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2334,26 +2739,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600634</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600634</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="96" idx="4"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1562100" y="3584331"/>
+          <a:ext cx="1107831" cy="1817077"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="729" name="正方形/長方形 728"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6018454" y="4023360"/>
-          <a:ext cx="2407920" cy="243840"/>
+          <a:off x="4823791" y="2623930"/>
+          <a:ext cx="1205948" cy="238540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2380,12 +2837,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2395,14 +2852,6 @@
             </a:rPr>
             <a:t>キャンセル</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2410,76 +2859,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="980" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="106" idx="1"/>
-          <a:endCxn id="1019" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="1828800" y="4114800"/>
-          <a:ext cx="1775013" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1019" name="正方形/長方形 1018"/>
+        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="601980" y="3291840"/>
-          <a:ext cx="2407920" cy="243840"/>
+          <a:off x="1805940" y="2194560"/>
+          <a:ext cx="1203960" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2506,12 +2905,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2519,7 +2918,18 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>タイムアウト</a:t>
+            <a:t>60</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>秒経過</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2528,78 +2938,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1021" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="131" idx="0"/>
-          <a:endCxn id="1027" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7655859" y="1694330"/>
-          <a:ext cx="304800" cy="2402540"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -57353"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600635</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3105</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="フローチャート : 定義済み処理 1026"/>
+        <xdr:cNvPr id="65" name="フローチャート : 定義済み処理 64"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6621780" y="2560320"/>
-          <a:ext cx="1202615" cy="487680"/>
+          <a:off x="2414954" y="1354015"/>
+          <a:ext cx="1210582" cy="245012"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2625,7 +2983,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2633,9 +2991,9 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>音声出力２</a:t>
+            <a:t>入力待ち</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2650,294 +3008,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1553</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1072" name="AutoShape 57"/>
+        <xdr:cNvPr id="70" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="253" idx="0"/>
-          <a:endCxn id="547" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5253318" y="1694329"/>
-          <a:ext cx="304800" cy="2402542"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -57353"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600635</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600634</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1090" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="106" idx="2"/>
-          <a:endCxn id="729" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5100917" y="3074894"/>
-          <a:ext cx="609600" cy="3603811"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 27206"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600635</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1110" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="1027" idx="3"/>
-          <a:endCxn id="148" idx="3"/>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="4230414" y="2659117"/>
-          <a:ext cx="3622359" cy="4109545"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -6311"/>
-          </a:avLst>
+          <a:off x="3018693" y="1599027"/>
+          <a:ext cx="1552" cy="370450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2364</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2364</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1171" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="542" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="5439103" y="6285186"/>
-          <a:ext cx="1" cy="483476"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1174" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="28" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="7252138" y="4593022"/>
-          <a:ext cx="2" cy="2175640"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>29788</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>14802</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>259908</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>73557</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="199" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:endCxn id="198" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1244226" y="5015427"/>
-          <a:ext cx="1444557" cy="892193"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
@@ -2958,36 +3058,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>29788</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>81249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>565847</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>36744</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="229" name="AutoShape 57"/>
+        <xdr:cNvPr id="75" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="198" idx="2"/>
-          <a:endCxn id="41" idx="2"/>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="57" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1808351" y="5851249"/>
-          <a:ext cx="622245" cy="1750496"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:xfrm>
+          <a:off x="3622431" y="2092569"/>
+          <a:ext cx="603738" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050">
+        <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
@@ -3008,36 +3108,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38894</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>44199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>444468</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>36744</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3106</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="232" name="AutoShape 57"/>
+        <xdr:cNvPr id="92" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="274" idx="2"/>
-          <a:endCxn id="41" idx="5"/>
+          <a:stCxn id="57" idx="0"/>
+          <a:endCxn id="65" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="4769783" y="5897966"/>
-          <a:ext cx="659295" cy="1620012"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3981244" y="1120814"/>
+          <a:ext cx="492957" cy="1204372"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050">
+        <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
@@ -3058,33 +3158,273 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200677</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11161</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>120229</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7731</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="259" name="正方形/長方形 258"/>
+        <xdr:cNvPr id="96" name="フローチャート: データ 95"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4414537" y="1718041"/>
-          <a:ext cx="521532" cy="240410"/>
+          <a:off x="601980" y="3169920"/>
+          <a:ext cx="1203960" cy="731521"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タイム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="フローチャート: データ 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1805940" y="3169920"/>
+          <a:ext cx="1203960" cy="731521"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>QR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コード有り</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="フローチャート: データ 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3018692" y="3200400"/>
+          <a:ext cx="1207477" cy="738555"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>QR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コード無し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602973</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2411896" y="2627753"/>
+          <a:ext cx="1205947" cy="234717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3106,20 +3446,98 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>NO</a:t>
+            <a:t>「はい」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="フローチャート: データ 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4226169" y="3199227"/>
+          <a:ext cx="1207477" cy="739727"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3128,33 +3546,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>576722</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>5079</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>512373</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>55512</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603738</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="111" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3432517" y="1801836"/>
+          <a:ext cx="983566" cy="1811215"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="107" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2828193" y="2406161"/>
+          <a:ext cx="984739" cy="603738"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602973</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="正方形/長方形 209"/>
+        <xdr:cNvPr id="119" name="正方形/長方形 118"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2382662" y="3784599"/>
-          <a:ext cx="537631" cy="172353"/>
+          <a:off x="3617843" y="2627753"/>
+          <a:ext cx="1205948" cy="234717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3176,21 +3696,29 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ＹＥＳ</a:t>
+            <a:t>「いいえ」</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3199,32 +3727,238 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>169972</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>93550</xdr:rowOff>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="111" idx="4"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="3373315" y="3590193"/>
+          <a:ext cx="1107832" cy="1805354"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5863</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>89524</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95822</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="107" idx="4"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2769578" y="4193932"/>
+          <a:ext cx="1107831" cy="597877"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5863</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="106" idx="4"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2165839" y="4188070"/>
+          <a:ext cx="1107831" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="106" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2224455" y="2406161"/>
+          <a:ext cx="984739" cy="603739"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>599292</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="211" name="正方形/長方形 210"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3179872" y="3994990"/>
-          <a:ext cx="521532" cy="246112"/>
+          <a:off x="3609192" y="2194560"/>
+          <a:ext cx="1206648" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3246,147 +3980,63 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>NO</a:t>
+            <a:t>音声認識不可</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>121097</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>32360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>400905</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="183" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:endCxn id="220" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1927037" y="2714600"/>
-          <a:ext cx="881788" cy="1180"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="AutoShape 56"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="37" idx="2"/>
-          <a:endCxn id="38" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3009900" y="487681"/>
-          <a:ext cx="0" cy="243839"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>2688</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="フローチャート : 端子 36"/>
+        <xdr:cNvPr id="103" name="フローチャート : 端子 146"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2407920" y="121921"/>
-          <a:ext cx="1203960" cy="365760"/>
+          <a:off x="2411896" y="238539"/>
+          <a:ext cx="1208635" cy="227782"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -3412,7 +4062,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -3422,7 +4072,7 @@
             </a:rPr>
             <a:t>Start</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -3445,55 +4095,44 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="フローチャート: 処理 37"/>
+        <xdr:cNvPr id="104" name="フローチャート : 定義済み処理 148"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1805940" y="731520"/>
-          <a:ext cx="2407920" cy="365761"/>
+          <a:off x="1808922" y="715617"/>
+          <a:ext cx="2411895" cy="231367"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -3501,15 +4140,12 @@
             <a:t>QR</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コードの有無を尋ねる</a:t>
+            <a:t>コードの提示を促す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3520,24 +4156,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4080</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>5028</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="フローチャート : 判断 38"/>
+        <xdr:cNvPr id="105" name="フローチャート : 判断 159"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2407920" y="1345200"/>
-          <a:ext cx="1203960" cy="483600"/>
+          <a:off x="2411896" y="1795043"/>
+          <a:ext cx="1210975" cy="232540"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -3561,8 +4197,28 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -3575,369 +4231,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>405198</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>55010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203695</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
+      <xdr:colOff>5860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8549</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="フローチャート: データ 40"/>
+        <xdr:cNvPr id="106" name="フローチャート : 端子 72"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2813118" y="4931810"/>
-          <a:ext cx="1604437" cy="435916"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartInputOutput">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>output</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>result</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4080</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="38" idx="2"/>
-          <a:endCxn id="39" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3009900" y="1097281"/>
-          <a:ext cx="0" cy="247919"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>445348</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>39929</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="274" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3611880" y="1587000"/>
-          <a:ext cx="2251288" cy="2720129"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>140030</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>40829</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="39" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3009900" y="1828800"/>
-          <a:ext cx="140030" cy="528509"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>541874</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>121097</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>96152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="220" name="フローチャート: 処理 219"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="541874" y="2528887"/>
-          <a:ext cx="1385163" cy="371425"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>タブレット入力</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3457</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8726</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>22880</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="257" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="41" idx="4"/>
-          <a:endCxn id="260" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3615337" y="5367726"/>
-          <a:ext cx="5269" cy="263474"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>43964</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>22880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>575467</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>121919</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="260" name="フローチャート : 端子 259"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3053864" y="5631200"/>
-          <a:ext cx="1133483" cy="342879"/>
+          <a:off x="2408401" y="4973619"/>
+          <a:ext cx="1203960" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -3963,7 +4275,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -3973,9 +4285,221 @@
             </a:rPr>
             <a:t>End</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="104" idx="2"/>
+          <a:endCxn id="114" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3014870" y="946984"/>
+          <a:ext cx="0" cy="252885"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1344</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="103" idx="2"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3014870" y="466321"/>
+          <a:ext cx="1344" cy="249296"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>597946</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="105" idx="1"/>
+          <a:endCxn id="118" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1200920" y="1911312"/>
+          <a:ext cx="1210977" cy="1077597"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2689</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="フローチャート : 定義済み処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4220817" y="1796216"/>
+          <a:ext cx="1208637" cy="231367"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ランダム案内</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -3988,36 +4512,86 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>597945</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7206</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78889</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="118" idx="4"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1555841" y="3519077"/>
+          <a:ext cx="1097280" cy="1811802"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602973</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>343009</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>39929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>35895</xdr:rowOff>
+      <xdr:colOff>2689</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="274" name="フローチャート: 処理 273"/>
+        <xdr:cNvPr id="112" name="正方形/長方形 111"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5158849" y="4307129"/>
-          <a:ext cx="1408638" cy="361726"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="3617843" y="2511832"/>
+          <a:ext cx="1208637" cy="231368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4036,25 +4610,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1">
-              <a:effectLst/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>result = -1</a:t>
+            <a:t>キャンセル</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1">
-            <a:effectLst/>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4062,36 +4632,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>506505</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>36196</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95892</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>40810</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599289</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1344</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="フローチャート: 処理 133"/>
+        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2914425" y="4303396"/>
-          <a:ext cx="1395327" cy="370374"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="1800560" y="2047538"/>
+          <a:ext cx="1203960" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4110,21 +4678,98 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>120</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>秒経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602973</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="フローチャート : 定義済み処理 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2411896" y="1199869"/>
+          <a:ext cx="1205947" cy="231366"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1">
-              <a:effectLst/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>result = 0</a:t>
+            <a:t>入力待ち</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1">
-            <a:effectLst/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -4136,36 +4781,418 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2514</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="114" idx="2"/>
+          <a:endCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3014870" y="1431235"/>
+          <a:ext cx="2514" cy="363808"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5028</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="105" idx="3"/>
+          <a:endCxn id="110" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3622871" y="1911313"/>
+          <a:ext cx="597946" cy="587"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602973</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1345</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="110" idx="0"/>
+          <a:endCxn id="114" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3981158" y="952237"/>
+          <a:ext cx="480664" cy="1207293"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>538523</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>58307</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>131828</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>62921</xdr:rowOff>
+      <xdr:colOff>596600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599289</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="フローチャート: 処理 197"/>
+        <xdr:cNvPr id="118" name="フローチャート: データ 117"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="538523" y="4325507"/>
-          <a:ext cx="1399245" cy="370374"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="596600" y="3144818"/>
+          <a:ext cx="1203960" cy="731521"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タイム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599289</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1344</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="フローチャート: データ 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800560" y="3144818"/>
+          <a:ext cx="1203960" cy="731521"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>QR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1344</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4033</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="フローチャート: データ 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3004520" y="3144818"/>
+          <a:ext cx="1203960" cy="731521"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600634</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3681</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2402540" y="2660961"/>
+          <a:ext cx="1204953" cy="240017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4184,21 +5211,25 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1">
-              <a:effectLst/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>result = 1</a:t>
+            <a:t>読込成功</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1">
-            <a:effectLst/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -4210,35 +5241,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2515</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>208</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>21457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1462</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>36197</xdr:rowOff>
+      <xdr:colOff>2690</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7170</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="213" name="AutoShape 57"/>
+        <xdr:cNvPr id="124" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:endCxn id="134" idx="0"/>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="120" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="3612088" y="4044817"/>
-          <a:ext cx="1254" cy="258580"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2838295" y="2206672"/>
+          <a:ext cx="961327" cy="603148"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050">
+        <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
@@ -4259,36 +5293,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7207</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>208</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>40811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3456</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>55011</xdr:rowOff>
+      <xdr:colOff>2689</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="221" name="AutoShape 57"/>
+        <xdr:cNvPr id="127" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="134" idx="2"/>
-          <a:endCxn id="41" idx="1"/>
+          <a:stCxn id="120" idx="4"/>
+          <a:endCxn id="106" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3612088" y="4673771"/>
-          <a:ext cx="3248" cy="258040"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:xfrm rot="5400000">
+          <a:off x="2759802" y="4126920"/>
+          <a:ext cx="1097280" cy="596118"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050">
+        <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
@@ -4307,1349 +5343,108 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>331949</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>588726</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="58" name="グループ化 57"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="331949" y="393999"/>
-          <a:ext cx="5743177" cy="6883101"/>
-          <a:chOff x="331949" y="396240"/>
-          <a:chExt cx="5743177" cy="6458395"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="正方形/長方形 56"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4029075" y="2457450"/>
-            <a:ext cx="497862" cy="303766"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7207</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78889</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="119" idx="4"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2157822" y="4121057"/>
+          <a:ext cx="1097280" cy="607842"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mj-ea"/>
-                <a:ea typeface="+mj-ea"/>
-              </a:rPr>
-              <a:t>NO</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="正方形/長方形 55"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2695575" y="2876550"/>
-            <a:ext cx="513231" cy="210569"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601805</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2515</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2233392" y="2204917"/>
+          <a:ext cx="961327" cy="606658"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ＹＥＳ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="54" name="グループ化 53"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="331949" y="396240"/>
-            <a:ext cx="5743177" cy="6458395"/>
-            <a:chOff x="277519" y="393999"/>
-            <a:chExt cx="5743177" cy="6416001"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="41" name="グループ化 40"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="277519" y="393999"/>
-              <a:ext cx="5743177" cy="6416001"/>
-              <a:chOff x="277519" y="393999"/>
-              <a:chExt cx="5743177" cy="6416001"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="3" name="グループ化 2"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="277519" y="393999"/>
-                <a:ext cx="5743177" cy="6416001"/>
-                <a:chOff x="1238408" y="306721"/>
-                <a:chExt cx="5743177" cy="6314203"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="3021111" y="3680834"/>
-                  <a:ext cx="513231" cy="205868"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>ＹＥＳ</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="3768693" y="3941269"/>
-                  <a:ext cx="497862" cy="296984"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mj-ea"/>
-                      <a:ea typeface="+mj-ea"/>
-                    </a:rPr>
-                    <a:t>NO</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="7" name="グループ化 6"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="1238408" y="306721"/>
-                  <a:ext cx="5743177" cy="6314203"/>
-                  <a:chOff x="1249294" y="306721"/>
-                  <a:chExt cx="5743177" cy="6314203"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="10" name="グループ化 9"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="1249294" y="306721"/>
-                    <a:ext cx="5743177" cy="6314203"/>
-                    <a:chOff x="1249294" y="306721"/>
-                    <a:chExt cx="5743177" cy="6314203"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="13" name="グループ化 12"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="1249294" y="306721"/>
-                      <a:ext cx="5743177" cy="6314203"/>
-                      <a:chOff x="1222399" y="313764"/>
-                      <a:chExt cx="5743177" cy="6587136"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:grpSp>
-                    <xdr:nvGrpSpPr>
-                      <xdr:cNvPr id="16" name="グループ化 15"/>
-                      <xdr:cNvGrpSpPr/>
-                    </xdr:nvGrpSpPr>
-                    <xdr:grpSpPr>
-                      <a:xfrm>
-                        <a:off x="1222399" y="313764"/>
-                        <a:ext cx="5070824" cy="6587136"/>
-                        <a:chOff x="1222399" y="313764"/>
-                        <a:chExt cx="5070824" cy="6587136"/>
-                      </a:xfrm>
-                    </xdr:grpSpPr>
-                    <xdr:cxnSp macro="">
-                      <xdr:nvCxnSpPr>
-                        <xdr:cNvPr id="18" name="AutoShape 57"/>
-                        <xdr:cNvCxnSpPr>
-                          <a:cxnSpLocks noChangeShapeType="1"/>
-                          <a:stCxn id="31" idx="1"/>
-                          <a:endCxn id="28" idx="3"/>
-                        </xdr:cNvCxnSpPr>
-                      </xdr:nvCxnSpPr>
-                      <xdr:spPr bwMode="auto">
-                        <a:xfrm flipH="1" flipV="1">
-                          <a:off x="2544697" y="3736194"/>
-                          <a:ext cx="710833" cy="1520"/>
-                        </a:xfrm>
-                        <a:prstGeom prst="straightConnector1">
-                          <a:avLst/>
-                        </a:prstGeom>
-                        <a:noFill/>
-                        <a:ln w="19050">
-                          <a:solidFill>
-                            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                          </a:solidFill>
-                          <a:round/>
-                          <a:headEnd/>
-                          <a:tailEnd type="triangle" w="med" len="med"/>
-                        </a:ln>
-                        <a:extLst>
-                          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                              <a:noFill/>
-                            </a14:hiddenFill>
-                          </a:ext>
-                        </a:extLst>
-                      </xdr:spPr>
-                    </xdr:cxnSp>
-                    <xdr:grpSp>
-                      <xdr:nvGrpSpPr>
-                        <xdr:cNvPr id="19" name="グループ化 18"/>
-                        <xdr:cNvGrpSpPr/>
-                      </xdr:nvGrpSpPr>
-                      <xdr:grpSpPr>
-                        <a:xfrm>
-                          <a:off x="1222399" y="313764"/>
-                          <a:ext cx="5070824" cy="6587136"/>
-                          <a:chOff x="1222399" y="313764"/>
-                          <a:chExt cx="5070824" cy="6587136"/>
-                        </a:xfrm>
-                      </xdr:grpSpPr>
-                      <xdr:grpSp>
-                        <xdr:nvGrpSpPr>
-                          <xdr:cNvPr id="20" name="グループ化 19"/>
-                          <xdr:cNvGrpSpPr/>
-                        </xdr:nvGrpSpPr>
-                        <xdr:grpSpPr>
-                          <a:xfrm>
-                            <a:off x="1222399" y="313764"/>
-                            <a:ext cx="5070824" cy="6587136"/>
-                            <a:chOff x="1222399" y="313764"/>
-                            <a:chExt cx="5070824" cy="6587136"/>
-                          </a:xfrm>
-                        </xdr:grpSpPr>
-                        <xdr:cxnSp macro="">
-                          <xdr:nvCxnSpPr>
-                            <xdr:cNvPr id="22" name="AutoShape 56"/>
-                            <xdr:cNvCxnSpPr>
-                              <a:cxnSpLocks noChangeShapeType="1"/>
-                              <a:stCxn id="33" idx="2"/>
-                              <a:endCxn id="40" idx="0"/>
-                            </xdr:cNvCxnSpPr>
-                          </xdr:nvCxnSpPr>
-                          <xdr:spPr bwMode="auto">
-                            <a:xfrm>
-                              <a:off x="4152903" y="755639"/>
-                              <a:ext cx="4223" cy="331706"/>
-                            </a:xfrm>
-                            <a:prstGeom prst="straightConnector1">
-                              <a:avLst/>
-                            </a:prstGeom>
-                            <a:noFill/>
-                            <a:ln w="19050">
-                              <a:solidFill>
-                                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                              </a:solidFill>
-                              <a:round/>
-                              <a:headEnd/>
-                              <a:tailEnd type="triangle" w="med" len="med"/>
-                            </a:ln>
-                            <a:extLst>
-                              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                  <a:noFill/>
-                                </a14:hiddenFill>
-                              </a:ext>
-                            </a:extLst>
-                          </xdr:spPr>
-                        </xdr:cxnSp>
-                        <xdr:grpSp>
-                          <xdr:nvGrpSpPr>
-                            <xdr:cNvPr id="23" name="グループ化 22"/>
-                            <xdr:cNvGrpSpPr/>
-                          </xdr:nvGrpSpPr>
-                          <xdr:grpSpPr>
-                            <a:xfrm>
-                              <a:off x="1222399" y="313764"/>
-                              <a:ext cx="5070824" cy="6587136"/>
-                              <a:chOff x="1303080" y="977153"/>
-                              <a:chExt cx="5070824" cy="6587136"/>
-                            </a:xfrm>
-                          </xdr:grpSpPr>
-                          <xdr:grpSp>
-                            <xdr:nvGrpSpPr>
-                              <xdr:cNvPr id="24" name="グループ化 23"/>
-                              <xdr:cNvGrpSpPr/>
-                            </xdr:nvGrpSpPr>
-                            <xdr:grpSpPr>
-                              <a:xfrm>
-                                <a:off x="1303080" y="977153"/>
-                                <a:ext cx="5070824" cy="5768604"/>
-                                <a:chOff x="1276185" y="1099708"/>
-                                <a:chExt cx="5070824" cy="5974516"/>
-                              </a:xfrm>
-                            </xdr:grpSpPr>
-                            <xdr:grpSp>
-                              <xdr:nvGrpSpPr>
-                                <xdr:cNvPr id="27" name="グループ化 26"/>
-                                <xdr:cNvGrpSpPr/>
-                              </xdr:nvGrpSpPr>
-                              <xdr:grpSpPr>
-                                <a:xfrm>
-                                  <a:off x="1937335" y="1099708"/>
-                                  <a:ext cx="4409674" cy="5974516"/>
-                                  <a:chOff x="1937335" y="1099708"/>
-                                  <a:chExt cx="4409674" cy="5974516"/>
-                                </a:xfrm>
-                              </xdr:grpSpPr>
-                              <xdr:grpSp>
-                                <xdr:nvGrpSpPr>
-                                  <xdr:cNvPr id="29" name="グループ化 28"/>
-                                  <xdr:cNvGrpSpPr/>
-                                </xdr:nvGrpSpPr>
-                                <xdr:grpSpPr>
-                                  <a:xfrm>
-                                    <a:off x="3305736" y="1099708"/>
-                                    <a:ext cx="3041273" cy="5974516"/>
-                                    <a:chOff x="2938183" y="472179"/>
-                                    <a:chExt cx="3041273" cy="5974516"/>
-                                  </a:xfrm>
-                                </xdr:grpSpPr>
-                                <xdr:sp macro="" textlink="">
-                                  <xdr:nvSpPr>
-                                    <xdr:cNvPr id="31" name="フローチャート : 判断 30"/>
-                                    <xdr:cNvSpPr/>
-                                  </xdr:nvSpPr>
-                                  <xdr:spPr>
-                                    <a:xfrm>
-                                      <a:off x="2941763" y="3539890"/>
-                                      <a:ext cx="1800564" cy="956916"/>
-                                    </a:xfrm>
-                                    <a:prstGeom prst="flowChartDecision">
-                                      <a:avLst/>
-                                    </a:prstGeom>
-                                  </xdr:spPr>
-                                  <xdr:style>
-                                    <a:lnRef idx="1">
-                                      <a:schemeClr val="accent6"/>
-                                    </a:lnRef>
-                                    <a:fillRef idx="2">
-                                      <a:schemeClr val="accent6"/>
-                                    </a:fillRef>
-                                    <a:effectRef idx="1">
-                                      <a:schemeClr val="accent6"/>
-                                    </a:effectRef>
-                                    <a:fontRef idx="minor">
-                                      <a:schemeClr val="dk1"/>
-                                    </a:fontRef>
-                                  </xdr:style>
-                                  <xdr:txBody>
-                                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-                                    <a:lstStyle/>
-                                    <a:p>
-                                      <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                                        <a:lnSpc>
-                                          <a:spcPct val="100000"/>
-                                        </a:lnSpc>
-                                        <a:spcBef>
-                                          <a:spcPts val="0"/>
-                                        </a:spcBef>
-                                        <a:spcAft>
-                                          <a:spcPts val="0"/>
-                                        </a:spcAft>
-                                        <a:buClrTx/>
-                                        <a:buSzTx/>
-                                        <a:buFontTx/>
-                                        <a:buNone/>
-                                        <a:tabLst/>
-                                        <a:defRPr/>
-                                      </a:pPr>
-                                      <a:r>
-                                        <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                          <a:effectLst/>
-                                          <a:latin typeface="+mn-ea"/>
-                                          <a:ea typeface="+mn-ea"/>
-                                        </a:rPr>
-                                        <a:t>不正なＱＲコード？</a:t>
-                                      </a:r>
-                                      <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                                        <a:effectLst/>
-                                        <a:latin typeface="+mn-ea"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                      </a:endParaRPr>
-                                    </a:p>
-                                  </xdr:txBody>
-                                </xdr:sp>
-                                <xdr:grpSp>
-                                  <xdr:nvGrpSpPr>
-                                    <xdr:cNvPr id="32" name="グループ化 31"/>
-                                    <xdr:cNvGrpSpPr/>
-                                  </xdr:nvGrpSpPr>
-                                  <xdr:grpSpPr>
-                                    <a:xfrm>
-                                      <a:off x="2938183" y="472179"/>
-                                      <a:ext cx="3041273" cy="5974516"/>
-                                      <a:chOff x="831477" y="409426"/>
-                                      <a:chExt cx="3041273" cy="5974516"/>
-                                    </a:xfrm>
-                                  </xdr:grpSpPr>
-                                  <xdr:sp macro="" textlink="">
-                                    <xdr:nvSpPr>
-                                      <xdr:cNvPr id="33" name="フローチャート : 端子 32"/>
-                                      <xdr:cNvSpPr/>
-                                    </xdr:nvSpPr>
-                                    <xdr:spPr>
-                                      <a:xfrm>
-                                        <a:off x="1191410" y="409426"/>
-                                        <a:ext cx="1082040" cy="457648"/>
-                                      </a:xfrm>
-                                      <a:prstGeom prst="flowChartTerminator">
-                                        <a:avLst/>
-                                      </a:prstGeom>
-                                    </xdr:spPr>
-                                    <xdr:style>
-                                      <a:lnRef idx="0">
-                                        <a:schemeClr val="accent2"/>
-                                      </a:lnRef>
-                                      <a:fillRef idx="3">
-                                        <a:schemeClr val="accent2"/>
-                                      </a:fillRef>
-                                      <a:effectRef idx="3">
-                                        <a:schemeClr val="accent2"/>
-                                      </a:effectRef>
-                                      <a:fontRef idx="minor">
-                                        <a:schemeClr val="lt1"/>
-                                      </a:fontRef>
-                                    </xdr:style>
-                                    <xdr:txBody>
-                                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-                                      <a:lstStyle/>
-                                      <a:p>
-                                        <a:pPr algn="ctr"/>
-                                        <a:r>
-                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                            <a:solidFill>
-                                              <a:schemeClr val="bg1"/>
-                                            </a:solidFill>
-                                            <a:latin typeface="+mn-ea"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                          </a:rPr>
-                                          <a:t>Start</a:t>
-                                        </a:r>
-                                        <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                          <a:solidFill>
-                                            <a:schemeClr val="bg1"/>
-                                          </a:solidFill>
-                                          <a:latin typeface="+mn-ea"/>
-                                          <a:ea typeface="+mn-ea"/>
-                                          <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                        </a:endParaRPr>
-                                      </a:p>
-                                    </xdr:txBody>
-                                  </xdr:sp>
-                                  <xdr:sp macro="" textlink="">
-                                    <xdr:nvSpPr>
-                                      <xdr:cNvPr id="35" name="フローチャート : 判断 34"/>
-                                      <xdr:cNvSpPr/>
-                                    </xdr:nvSpPr>
-                                    <xdr:spPr>
-                                      <a:xfrm>
-                                        <a:off x="831477" y="2077249"/>
-                                        <a:ext cx="1800000" cy="978317"/>
-                                      </a:xfrm>
-                                      <a:prstGeom prst="flowChartDecision">
-                                        <a:avLst/>
-                                      </a:prstGeom>
-                                    </xdr:spPr>
-                                    <xdr:style>
-                                      <a:lnRef idx="1">
-                                        <a:schemeClr val="accent6"/>
-                                      </a:lnRef>
-                                      <a:fillRef idx="2">
-                                        <a:schemeClr val="accent6"/>
-                                      </a:fillRef>
-                                      <a:effectRef idx="1">
-                                        <a:schemeClr val="accent6"/>
-                                      </a:effectRef>
-                                      <a:fontRef idx="minor">
-                                        <a:schemeClr val="dk1"/>
-                                      </a:fontRef>
-                                    </xdr:style>
-                                    <xdr:txBody>
-                                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-                                      <a:lstStyle/>
-                                      <a:p>
-                                        <a:pPr algn="ctr"/>
-                                        <a:r>
-                                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                            <a:latin typeface="+mn-ea"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                          </a:rPr>
-                                          <a:t>一定時間内に提示？</a:t>
-                                        </a:r>
-                                      </a:p>
-                                    </xdr:txBody>
-                                  </xdr:sp>
-                                  <xdr:sp macro="" textlink="">
-                                    <xdr:nvSpPr>
-                                      <xdr:cNvPr id="36" name="フローチャート: データ 35"/>
-                                      <xdr:cNvSpPr/>
-                                    </xdr:nvSpPr>
-                                    <xdr:spPr>
-                                      <a:xfrm>
-                                        <a:off x="970090" y="5802116"/>
-                                        <a:ext cx="1531620" cy="581826"/>
-                                      </a:xfrm>
-                                      <a:prstGeom prst="flowChartInputOutput">
-                                        <a:avLst/>
-                                      </a:prstGeom>
-                                    </xdr:spPr>
-                                    <xdr:style>
-                                      <a:lnRef idx="1">
-                                        <a:schemeClr val="dk1"/>
-                                      </a:lnRef>
-                                      <a:fillRef idx="2">
-                                        <a:schemeClr val="dk1"/>
-                                      </a:fillRef>
-                                      <a:effectRef idx="1">
-                                        <a:schemeClr val="dk1"/>
-                                      </a:effectRef>
-                                      <a:fontRef idx="minor">
-                                        <a:schemeClr val="dk1"/>
-                                      </a:fontRef>
-                                    </xdr:style>
-                                    <xdr:txBody>
-                                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-                                      <a:lstStyle/>
-                                      <a:p>
-                                        <a:pPr algn="ctr"/>
-                                        <a:r>
-                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                            <a:latin typeface="+mn-ea"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                          </a:rPr>
-                                          <a:t>output</a:t>
-                                        </a:r>
-                                      </a:p>
-                                      <a:p>
-                                        <a:pPr algn="ctr"/>
-                                        <a:r>
-                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                            <a:latin typeface="+mn-ea"/>
-                                            <a:ea typeface="+mn-ea"/>
-                                          </a:rPr>
-                                          <a:t>code</a:t>
-                                        </a:r>
-                                        <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                          <a:latin typeface="+mn-ea"/>
-                                          <a:ea typeface="+mn-ea"/>
-                                        </a:endParaRPr>
-                                      </a:p>
-                                    </xdr:txBody>
-                                  </xdr:sp>
-                                  <xdr:cxnSp macro="">
-                                    <xdr:nvCxnSpPr>
-                                      <xdr:cNvPr id="37" name="AutoShape 57"/>
-                                      <xdr:cNvCxnSpPr>
-                                        <a:cxnSpLocks noChangeShapeType="1"/>
-                                        <a:endCxn id="35" idx="0"/>
-                                      </xdr:cNvCxnSpPr>
-                                    </xdr:nvCxnSpPr>
-                                    <xdr:spPr bwMode="auto">
-                                      <a:xfrm flipH="1">
-                                        <a:off x="1731477" y="1719493"/>
-                                        <a:ext cx="2298" cy="357757"/>
-                                      </a:xfrm>
-                                      <a:prstGeom prst="straightConnector1">
-                                        <a:avLst/>
-                                      </a:prstGeom>
-                                      <a:noFill/>
-                                      <a:ln w="19050">
-                                        <a:solidFill>
-                                          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                                        </a:solidFill>
-                                        <a:round/>
-                                        <a:headEnd/>
-                                        <a:tailEnd type="triangle" w="med" len="med"/>
-                                      </a:ln>
-                                      <a:extLst>
-                                        <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                          <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                            <a:noFill/>
-                                          </a14:hiddenFill>
-                                        </a:ext>
-                                      </a:extLst>
-                                    </xdr:spPr>
-                                  </xdr:cxnSp>
-                                  <xdr:cxnSp macro="">
-                                    <xdr:nvCxnSpPr>
-                                      <xdr:cNvPr id="38" name="AutoShape 57"/>
-                                      <xdr:cNvCxnSpPr>
-                                        <a:cxnSpLocks noChangeShapeType="1"/>
-                                        <a:stCxn id="35" idx="3"/>
-                                        <a:endCxn id="17" idx="0"/>
-                                      </xdr:cNvCxnSpPr>
-                                    </xdr:nvCxnSpPr>
-                                    <xdr:spPr bwMode="auto">
-                                      <a:xfrm>
-                                        <a:off x="2631477" y="2566407"/>
-                                        <a:ext cx="1241273" cy="2325686"/>
-                                      </a:xfrm>
-                                      <a:prstGeom prst="bentConnector2">
-                                        <a:avLst/>
-                                      </a:prstGeom>
-                                      <a:noFill/>
-                                      <a:ln w="19050">
-                                        <a:solidFill>
-                                          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                                        </a:solidFill>
-                                        <a:round/>
-                                        <a:headEnd/>
-                                        <a:tailEnd type="triangle" w="med" len="med"/>
-                                      </a:ln>
-                                      <a:extLst>
-                                        <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                          <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                            <a:noFill/>
-                                          </a14:hiddenFill>
-                                        </a:ext>
-                                      </a:extLst>
-                                    </xdr:spPr>
-                                  </xdr:cxnSp>
-                                  <xdr:cxnSp macro="">
-                                    <xdr:nvCxnSpPr>
-                                      <xdr:cNvPr id="39" name="AutoShape 57"/>
-                                      <xdr:cNvCxnSpPr>
-                                        <a:cxnSpLocks noChangeShapeType="1"/>
-                                        <a:stCxn id="35" idx="2"/>
-                                        <a:endCxn id="31" idx="0"/>
-                                      </xdr:cNvCxnSpPr>
-                                    </xdr:nvCxnSpPr>
-                                    <xdr:spPr bwMode="auto">
-                                      <a:xfrm>
-                                        <a:off x="1731477" y="3055566"/>
-                                        <a:ext cx="3862" cy="421571"/>
-                                      </a:xfrm>
-                                      <a:prstGeom prst="straightConnector1">
-                                        <a:avLst/>
-                                      </a:prstGeom>
-                                      <a:noFill/>
-                                      <a:ln w="19050">
-                                        <a:solidFill>
-                                          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                                        </a:solidFill>
-                                        <a:round/>
-                                        <a:headEnd/>
-                                        <a:tailEnd type="triangle" w="med" len="med"/>
-                                      </a:ln>
-                                      <a:extLst>
-                                        <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                          <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                            <a:noFill/>
-                                          </a14:hiddenFill>
-                                        </a:ext>
-                                      </a:extLst>
-                                    </xdr:spPr>
-                                  </xdr:cxnSp>
-                                </xdr:grpSp>
-                              </xdr:grpSp>
-                              <xdr:cxnSp macro="">
-                                <xdr:nvCxnSpPr>
-                                  <xdr:cNvPr id="30" name="AutoShape 57"/>
-                                  <xdr:cNvCxnSpPr>
-                                    <a:cxnSpLocks noChangeShapeType="1"/>
-                                    <a:stCxn id="28" idx="0"/>
-                                    <a:endCxn id="35" idx="1"/>
-                                  </xdr:cNvCxnSpPr>
-                                </xdr:nvCxnSpPr>
-                                <xdr:spPr bwMode="auto">
-                                  <a:xfrm rot="5400000" flipH="1" flipV="1">
-                                    <a:off x="2051666" y="3142358"/>
-                                    <a:ext cx="1139739" cy="1368402"/>
-                                  </a:xfrm>
-                                  <a:prstGeom prst="bentConnector2">
-                                    <a:avLst/>
-                                  </a:prstGeom>
-                                  <a:noFill/>
-                                  <a:ln w="19050">
-                                    <a:solidFill>
-                                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                                    </a:solidFill>
-                                    <a:round/>
-                                    <a:headEnd/>
-                                    <a:tailEnd type="triangle" w="med" len="med"/>
-                                  </a:ln>
-                                  <a:extLst>
-                                    <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                      <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                        <a:noFill/>
-                                      </a14:hiddenFill>
-                                    </a:ext>
-                                  </a:extLst>
-                                </xdr:spPr>
-                              </xdr:cxnSp>
-                            </xdr:grpSp>
-                            <xdr:sp macro="" textlink="">
-                              <xdr:nvSpPr>
-                                <xdr:cNvPr id="28" name="フローチャート: 処理 27"/>
-                                <xdr:cNvSpPr/>
-                              </xdr:nvSpPr>
-                              <xdr:spPr>
-                                <a:xfrm>
-                                  <a:off x="1276185" y="4396428"/>
-                                  <a:ext cx="1322298" cy="495748"/>
-                                </a:xfrm>
-                                <a:prstGeom prst="flowChartProcess">
-                                  <a:avLst/>
-                                </a:prstGeom>
-                                <a:solidFill>
-                                  <a:schemeClr val="tx2">
-                                    <a:lumMod val="60000"/>
-                                    <a:lumOff val="40000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                              </xdr:spPr>
-                              <xdr:style>
-                                <a:lnRef idx="2">
-                                  <a:schemeClr val="accent1">
-                                    <a:shade val="50000"/>
-                                  </a:schemeClr>
-                                </a:lnRef>
-                                <a:fillRef idx="1">
-                                  <a:schemeClr val="accent1"/>
-                                </a:fillRef>
-                                <a:effectRef idx="0">
-                                  <a:schemeClr val="accent1"/>
-                                </a:effectRef>
-                                <a:fontRef idx="minor">
-                                  <a:schemeClr val="lt1"/>
-                                </a:fontRef>
-                              </xdr:style>
-                              <xdr:txBody>
-                                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                                <a:lstStyle/>
-                                <a:p>
-                                  <a:pPr algn="ctr"/>
-                                  <a:r>
-                                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                      <a:solidFill>
-                                        <a:schemeClr val="bg1"/>
-                                      </a:solidFill>
-                                      <a:latin typeface="+mn-ea"/>
-                                      <a:ea typeface="+mn-ea"/>
-                                      <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                    </a:rPr>
-                                    <a:t>メッセージ</a:t>
-                                  </a:r>
-                                </a:p>
-                              </xdr:txBody>
-                            </xdr:sp>
-                          </xdr:grpSp>
-                          <xdr:cxnSp macro="">
-                            <xdr:nvCxnSpPr>
-                              <xdr:cNvPr id="25" name="AutoShape 57"/>
-                              <xdr:cNvCxnSpPr>
-                                <a:cxnSpLocks noChangeShapeType="1"/>
-                                <a:stCxn id="36" idx="4"/>
-                                <a:endCxn id="26" idx="0"/>
-                              </xdr:cNvCxnSpPr>
-                            </xdr:nvCxnSpPr>
-                            <xdr:spPr bwMode="auto">
-                              <a:xfrm>
-                                <a:off x="4237054" y="6745757"/>
-                                <a:ext cx="5030" cy="376656"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="straightConnector1">
-                                <a:avLst/>
-                              </a:prstGeom>
-                              <a:noFill/>
-                              <a:ln w="19050">
-                                <a:solidFill>
-                                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                                </a:solidFill>
-                                <a:round/>
-                                <a:headEnd/>
-                                <a:tailEnd type="triangle" w="med" len="med"/>
-                              </a:ln>
-                              <a:extLst>
-                                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                    <a:noFill/>
-                                  </a14:hiddenFill>
-                                </a:ext>
-                              </a:extLst>
-                            </xdr:spPr>
-                          </xdr:cxnSp>
-                          <xdr:sp macro="" textlink="">
-                            <xdr:nvSpPr>
-                              <xdr:cNvPr id="26" name="フローチャート : 端子 25"/>
-                              <xdr:cNvSpPr/>
-                            </xdr:nvSpPr>
-                            <xdr:spPr>
-                              <a:xfrm>
-                                <a:off x="3701064" y="7122414"/>
-                                <a:ext cx="1082040" cy="441875"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="flowChartTerminator">
-                                <a:avLst/>
-                              </a:prstGeom>
-                            </xdr:spPr>
-                            <xdr:style>
-                              <a:lnRef idx="0">
-                                <a:schemeClr val="accent2"/>
-                              </a:lnRef>
-                              <a:fillRef idx="3">
-                                <a:schemeClr val="accent2"/>
-                              </a:fillRef>
-                              <a:effectRef idx="3">
-                                <a:schemeClr val="accent2"/>
-                              </a:effectRef>
-                              <a:fontRef idx="minor">
-                                <a:schemeClr val="lt1"/>
-                              </a:fontRef>
-                            </xdr:style>
-                            <xdr:txBody>
-                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-                              <a:lstStyle/>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="bg1"/>
-                                    </a:solidFill>
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                  </a:rPr>
-                                  <a:t>End</a:t>
-                                </a:r>
-                                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="bg1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-ea"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                </a:endParaRPr>
-                              </a:p>
-                            </xdr:txBody>
-                          </xdr:sp>
-                        </xdr:grpSp>
-                      </xdr:grpSp>
-                      <xdr:cxnSp macro="">
-                        <xdr:nvCxnSpPr>
-                          <xdr:cNvPr id="21" name="AutoShape 57"/>
-                          <xdr:cNvCxnSpPr>
-                            <a:cxnSpLocks noChangeShapeType="1"/>
-                            <a:stCxn id="31" idx="2"/>
-                            <a:endCxn id="14" idx="0"/>
-                          </xdr:cNvCxnSpPr>
-                        </xdr:nvCxnSpPr>
-                        <xdr:spPr bwMode="auto">
-                          <a:xfrm flipH="1">
-                            <a:off x="4153272" y="4199683"/>
-                            <a:ext cx="2540" cy="446902"/>
-                          </a:xfrm>
-                          <a:prstGeom prst="straightConnector1">
-                            <a:avLst/>
-                          </a:prstGeom>
-                          <a:noFill/>
-                          <a:ln w="19050">
-                            <a:solidFill>
-                              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                            </a:solidFill>
-                            <a:round/>
-                            <a:headEnd/>
-                            <a:tailEnd type="triangle" w="med" len="med"/>
-                          </a:ln>
-                          <a:extLst>
-                            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                <a:noFill/>
-                              </a14:hiddenFill>
-                            </a:ext>
-                          </a:extLst>
-                        </xdr:spPr>
-                      </xdr:cxnSp>
-                    </xdr:grpSp>
-                  </xdr:grpSp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="17" name="フローチャート: 処理 16"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="5620869" y="4641936"/>
-                        <a:ext cx="1344707" cy="466164"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="flowChartProcess">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent1">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent1"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-ea"/>
-                            <a:ea typeface="+mn-ea"/>
-                          </a:rPr>
-                          <a:t>code = null</a:t>
-                        </a:r>
-                        <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-ea"/>
-                          <a:ea typeface="+mn-ea"/>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="14" name="フローチャート: 処理 13"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="3514167" y="4460014"/>
-                      <a:ext cx="1332000" cy="457531"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="flowChartProcess">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:solidFill>
-                      <a:schemeClr val="tx2">
-                        <a:lumMod val="60000"/>
-                        <a:lumOff val="40000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="accent1">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="accent1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="accent1"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="lt1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:r>
-                        <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-ea"/>
-                          <a:ea typeface="+mn-ea"/>
-                        </a:rPr>
-                        <a:t>code</a:t>
-                      </a:r>
-                      <a:r>
-                        <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-ea"/>
-                          <a:ea typeface="+mn-ea"/>
-                        </a:rPr>
-                        <a:t> = QR</a:t>
-                      </a:r>
-                      <a:r>
-                        <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-ea"/>
-                          <a:ea typeface="+mn-ea"/>
-                        </a:rPr>
-                        <a:t>コード</a:t>
-                      </a:r>
-                      <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-ea"/>
-                        <a:ea typeface="+mn-ea"/>
-                      </a:endParaRPr>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:cxnSp macro="">
-                <xdr:nvCxnSpPr>
-                  <xdr:cNvPr id="12" name="AutoShape 57"/>
-                  <xdr:cNvCxnSpPr>
-                    <a:cxnSpLocks noChangeShapeType="1"/>
-                    <a:stCxn id="14" idx="2"/>
-                    <a:endCxn id="36" idx="1"/>
-                  </xdr:cNvCxnSpPr>
-                </xdr:nvCxnSpPr>
-                <xdr:spPr bwMode="auto">
-                  <a:xfrm>
-                    <a:off x="4180167" y="4917545"/>
-                    <a:ext cx="3101" cy="380264"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="straightConnector1">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln w="19050">
-                    <a:solidFill>
-                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                    </a:solidFill>
-                    <a:round/>
-                    <a:headEnd/>
-                    <a:tailEnd type="triangle" w="med" len="med"/>
-                  </a:ln>
-                  <a:extLst>
-                    <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                      <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                        <a:noFill/>
-                      </a14:hiddenFill>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:spPr>
-              </xdr:cxnSp>
-            </xdr:grpSp>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="40" name="フローチャート : 定義済み処理 39"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2205318" y="1147482"/>
-                <a:ext cx="2013856" cy="555833"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartPredefinedProcess">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:fillRef>
-              <a:effectRef idx="1">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-ea"/>
-                    <a:ea typeface="+mn-ea"/>
-                  </a:rPr>
-                  <a:t>QR</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-ea"/>
-                    <a:ea typeface="+mn-ea"/>
-                  </a:rPr>
-                  <a:t>コード</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-ea"/>
-                  <a:ea typeface="+mn-ea"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-ea"/>
-                    <a:ea typeface="+mn-ea"/>
-                  </a:rPr>
-                  <a:t>提示</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>案内</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="50" name="AutoShape 57"/>
-            <xdr:cNvCxnSpPr>
-              <a:cxnSpLocks noChangeShapeType="1"/>
-              <a:stCxn id="17" idx="2"/>
-              <a:endCxn id="36" idx="5"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm rot="5400000">
-              <a:off x="4248559" y="4639358"/>
-              <a:ext cx="675366" cy="1524202"/>
-            </a:xfrm>
-            <a:prstGeom prst="bentConnector2">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:noFill/>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-    </xdr:grpSp>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5659,16 +5454,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>120060</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>137564</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>272460</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>10564</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5677,8 +5472,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="729660" y="272676"/>
-          <a:ext cx="3446100" cy="5148088"/>
+          <a:off x="7435260" y="1265816"/>
+          <a:ext cx="3369900" cy="3951748"/>
           <a:chOff x="729660" y="275216"/>
           <a:chExt cx="3446100" cy="5226828"/>
         </a:xfrm>
@@ -6618,6 +6413,969 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>272460</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>10564</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7435260" y="1265816"/>
+          <a:ext cx="3369900" cy="3951748"/>
+          <a:chOff x="729660" y="275216"/>
+          <a:chExt cx="3446100" cy="5226828"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 2"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="729660" y="275216"/>
+            <a:ext cx="3446100" cy="5226828"/>
+            <a:chOff x="2639151" y="170329"/>
+            <a:chExt cx="3446100" cy="5310797"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="5" name="グループ化 4"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="2639151" y="170329"/>
+              <a:ext cx="3446100" cy="5310797"/>
+              <a:chOff x="2639151" y="170329"/>
+              <a:chExt cx="3446100" cy="5310797"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="7" name="グループ化 6"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="2639151" y="170329"/>
+                <a:ext cx="3328144" cy="5310797"/>
+                <a:chOff x="2307070" y="393999"/>
+                <a:chExt cx="3328144" cy="5194104"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="9" name="グループ化 8"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="2307070" y="393999"/>
+                  <a:ext cx="3328144" cy="5194104"/>
+                  <a:chOff x="3267959" y="306721"/>
+                  <a:chExt cx="3328144" cy="5111692"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3585887" y="2723057"/>
+                    <a:ext cx="513231" cy="205868"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>ＹＥＳ</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4987893" y="2310455"/>
+                    <a:ext cx="497862" cy="296984"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mj-ea"/>
+                        <a:ea typeface="+mj-ea"/>
+                      </a:rPr>
+                      <a:t>NO</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="13" name="グループ化 12"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="3267959" y="306721"/>
+                    <a:ext cx="3328144" cy="5111692"/>
+                    <a:chOff x="3278845" y="306721"/>
+                    <a:chExt cx="3328144" cy="5111692"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="14" name="グループ化 13"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="3278845" y="306721"/>
+                      <a:ext cx="3328144" cy="5111692"/>
+                      <a:chOff x="3278845" y="306721"/>
+                      <a:chExt cx="3328144" cy="5111692"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="16" name="グループ化 15"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="3278845" y="306721"/>
+                        <a:ext cx="3328144" cy="5111692"/>
+                        <a:chOff x="3251950" y="313764"/>
+                        <a:chExt cx="3328144" cy="5332650"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:grpSp>
+                      <xdr:nvGrpSpPr>
+                        <xdr:cNvPr id="18" name="グループ化 17"/>
+                        <xdr:cNvGrpSpPr/>
+                      </xdr:nvGrpSpPr>
+                      <xdr:grpSpPr>
+                        <a:xfrm>
+                          <a:off x="3251950" y="313764"/>
+                          <a:ext cx="2655791" cy="5332650"/>
+                          <a:chOff x="3251950" y="313764"/>
+                          <a:chExt cx="2655791" cy="5332650"/>
+                        </a:xfrm>
+                      </xdr:grpSpPr>
+                      <xdr:cxnSp macro="">
+                        <xdr:nvCxnSpPr>
+                          <xdr:cNvPr id="20" name="AutoShape 56"/>
+                          <xdr:cNvCxnSpPr>
+                            <a:cxnSpLocks noChangeShapeType="1"/>
+                            <a:stCxn id="25" idx="2"/>
+                            <a:endCxn id="4" idx="0"/>
+                          </xdr:cNvCxnSpPr>
+                        </xdr:nvCxnSpPr>
+                        <xdr:spPr bwMode="auto">
+                          <a:xfrm flipH="1">
+                            <a:off x="4149161" y="755639"/>
+                            <a:ext cx="3742" cy="326864"/>
+                          </a:xfrm>
+                          <a:prstGeom prst="straightConnector1">
+                            <a:avLst/>
+                          </a:prstGeom>
+                          <a:noFill/>
+                          <a:ln w="19050">
+                            <a:solidFill>
+                              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                            </a:solidFill>
+                            <a:round/>
+                            <a:headEnd/>
+                            <a:tailEnd type="triangle" w="med" len="med"/>
+                          </a:ln>
+                          <a:extLst>
+                            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                                <a:noFill/>
+                              </a14:hiddenFill>
+                            </a:ext>
+                          </a:extLst>
+                        </xdr:spPr>
+                      </xdr:cxnSp>
+                      <xdr:grpSp>
+                        <xdr:nvGrpSpPr>
+                          <xdr:cNvPr id="21" name="グループ化 20"/>
+                          <xdr:cNvGrpSpPr/>
+                        </xdr:nvGrpSpPr>
+                        <xdr:grpSpPr>
+                          <a:xfrm>
+                            <a:off x="3251950" y="313764"/>
+                            <a:ext cx="2655791" cy="5332650"/>
+                            <a:chOff x="3332631" y="977153"/>
+                            <a:chExt cx="2655791" cy="5332650"/>
+                          </a:xfrm>
+                        </xdr:grpSpPr>
+                        <xdr:grpSp>
+                          <xdr:nvGrpSpPr>
+                            <xdr:cNvPr id="22" name="グループ化 21"/>
+                            <xdr:cNvGrpSpPr/>
+                          </xdr:nvGrpSpPr>
+                          <xdr:grpSpPr>
+                            <a:xfrm>
+                              <a:off x="3332631" y="977153"/>
+                              <a:ext cx="2655791" cy="4502968"/>
+                              <a:chOff x="831477" y="409426"/>
+                              <a:chExt cx="2655791" cy="4663705"/>
+                            </a:xfrm>
+                          </xdr:grpSpPr>
+                          <xdr:sp macro="" textlink="">
+                            <xdr:nvSpPr>
+                              <xdr:cNvPr id="25" name="フローチャート : 端子 24"/>
+                              <xdr:cNvSpPr/>
+                            </xdr:nvSpPr>
+                            <xdr:spPr>
+                              <a:xfrm>
+                                <a:off x="1191410" y="409426"/>
+                                <a:ext cx="1082040" cy="457648"/>
+                              </a:xfrm>
+                              <a:prstGeom prst="flowChartTerminator">
+                                <a:avLst/>
+                              </a:prstGeom>
+                            </xdr:spPr>
+                            <xdr:style>
+                              <a:lnRef idx="0">
+                                <a:schemeClr val="accent2"/>
+                              </a:lnRef>
+                              <a:fillRef idx="3">
+                                <a:schemeClr val="accent2"/>
+                              </a:fillRef>
+                              <a:effectRef idx="3">
+                                <a:schemeClr val="accent2"/>
+                              </a:effectRef>
+                              <a:fontRef idx="minor">
+                                <a:schemeClr val="lt1"/>
+                              </a:fontRef>
+                            </xdr:style>
+                            <xdr:txBody>
+                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+                              <a:lstStyle/>
+                              <a:p>
+                                <a:pPr algn="ctr"/>
+                                <a:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="bg1"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="+mn-ea"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                                  </a:rPr>
+                                  <a:t>Start</a:t>
+                                </a:r>
+                                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="bg1"/>
+                                  </a:solidFill>
+                                  <a:latin typeface="+mn-ea"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                                </a:endParaRPr>
+                              </a:p>
+                            </xdr:txBody>
+                          </xdr:sp>
+                          <xdr:sp macro="" textlink="">
+                            <xdr:nvSpPr>
+                              <xdr:cNvPr id="26" name="フローチャート : 判断 25"/>
+                              <xdr:cNvSpPr/>
+                            </xdr:nvSpPr>
+                            <xdr:spPr>
+                              <a:xfrm>
+                                <a:off x="831477" y="2134159"/>
+                                <a:ext cx="1800000" cy="921409"/>
+                              </a:xfrm>
+                              <a:prstGeom prst="flowChartDecision">
+                                <a:avLst/>
+                              </a:prstGeom>
+                            </xdr:spPr>
+                            <xdr:style>
+                              <a:lnRef idx="1">
+                                <a:schemeClr val="accent6"/>
+                              </a:lnRef>
+                              <a:fillRef idx="2">
+                                <a:schemeClr val="accent6"/>
+                              </a:fillRef>
+                              <a:effectRef idx="1">
+                                <a:schemeClr val="accent6"/>
+                              </a:effectRef>
+                              <a:fontRef idx="minor">
+                                <a:schemeClr val="dk1"/>
+                              </a:fontRef>
+                            </xdr:style>
+                            <xdr:txBody>
+                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                              <a:lstStyle/>
+                              <a:p>
+                                <a:pPr algn="ctr"/>
+                                <a:r>
+                                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+                                    <a:latin typeface="+mn-ea"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                  </a:rPr>
+                                  <a:t>該当の</a:t>
+                                </a:r>
+                                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+                                  <a:latin typeface="+mn-ea"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                </a:endParaRPr>
+                              </a:p>
+                              <a:p>
+                                <a:pPr algn="ctr"/>
+                                <a:r>
+                                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+                                    <a:latin typeface="+mn-ea"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                  </a:rPr>
+                                  <a:t>商品有り？</a:t>
+                                </a:r>
+                              </a:p>
+                            </xdr:txBody>
+                          </xdr:sp>
+                          <xdr:sp macro="" textlink="">
+                            <xdr:nvSpPr>
+                              <xdr:cNvPr id="27" name="フローチャート: データ 26"/>
+                              <xdr:cNvSpPr/>
+                            </xdr:nvSpPr>
+                            <xdr:spPr>
+                              <a:xfrm>
+                                <a:off x="969032" y="4491305"/>
+                                <a:ext cx="1531620" cy="581826"/>
+                              </a:xfrm>
+                              <a:prstGeom prst="flowChartInputOutput">
+                                <a:avLst/>
+                              </a:prstGeom>
+                            </xdr:spPr>
+                            <xdr:style>
+                              <a:lnRef idx="1">
+                                <a:schemeClr val="dk1"/>
+                              </a:lnRef>
+                              <a:fillRef idx="2">
+                                <a:schemeClr val="dk1"/>
+                              </a:fillRef>
+                              <a:effectRef idx="1">
+                                <a:schemeClr val="dk1"/>
+                              </a:effectRef>
+                              <a:fontRef idx="minor">
+                                <a:schemeClr val="dk1"/>
+                              </a:fontRef>
+                            </xdr:style>
+                            <xdr:txBody>
+                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+                              <a:lstStyle/>
+                              <a:p>
+                                <a:pPr algn="ctr"/>
+                                <a:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                                    <a:latin typeface="+mn-ea"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                  </a:rPr>
+                                  <a:t>output</a:t>
+                                </a:r>
+                              </a:p>
+                              <a:p>
+                                <a:pPr algn="ctr"/>
+                                <a:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                                    <a:latin typeface="+mn-ea"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                  </a:rPr>
+                                  <a:t>exist</a:t>
+                                </a:r>
+                                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                                  <a:latin typeface="+mn-ea"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                </a:endParaRPr>
+                              </a:p>
+                            </xdr:txBody>
+                          </xdr:sp>
+                          <xdr:cxnSp macro="">
+                            <xdr:nvCxnSpPr>
+                              <xdr:cNvPr id="28" name="AutoShape 57"/>
+                              <xdr:cNvCxnSpPr>
+                                <a:cxnSpLocks noChangeShapeType="1"/>
+                                <a:stCxn id="26" idx="3"/>
+                                <a:endCxn id="19" idx="0"/>
+                              </xdr:cNvCxnSpPr>
+                            </xdr:nvCxnSpPr>
+                            <xdr:spPr bwMode="auto">
+                              <a:xfrm>
+                                <a:off x="2631477" y="2594864"/>
+                                <a:ext cx="855791" cy="954730"/>
+                              </a:xfrm>
+                              <a:prstGeom prst="bentConnector2">
+                                <a:avLst/>
+                              </a:prstGeom>
+                              <a:noFill/>
+                              <a:ln w="19050">
+                                <a:solidFill>
+                                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                                </a:solidFill>
+                                <a:round/>
+                                <a:headEnd/>
+                                <a:tailEnd type="triangle" w="med" len="med"/>
+                              </a:ln>
+                              <a:extLst>
+                                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                                    <a:noFill/>
+                                  </a14:hiddenFill>
+                                </a:ext>
+                              </a:extLst>
+                            </xdr:spPr>
+                          </xdr:cxnSp>
+                          <xdr:cxnSp macro="">
+                            <xdr:nvCxnSpPr>
+                              <xdr:cNvPr id="29" name="AutoShape 57"/>
+                              <xdr:cNvCxnSpPr>
+                                <a:cxnSpLocks noChangeShapeType="1"/>
+                                <a:stCxn id="26" idx="2"/>
+                                <a:endCxn id="17" idx="0"/>
+                              </xdr:cNvCxnSpPr>
+                            </xdr:nvCxnSpPr>
+                            <xdr:spPr bwMode="auto">
+                              <a:xfrm>
+                                <a:off x="1731477" y="3055568"/>
+                                <a:ext cx="824" cy="489520"/>
+                              </a:xfrm>
+                              <a:prstGeom prst="straightConnector1">
+                                <a:avLst/>
+                              </a:prstGeom>
+                              <a:noFill/>
+                              <a:ln w="19050">
+                                <a:solidFill>
+                                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                                </a:solidFill>
+                                <a:round/>
+                                <a:headEnd/>
+                                <a:tailEnd type="triangle" w="med" len="med"/>
+                              </a:ln>
+                              <a:extLst>
+                                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                                    <a:noFill/>
+                                  </a14:hiddenFill>
+                                </a:ext>
+                              </a:extLst>
+                            </xdr:spPr>
+                          </xdr:cxnSp>
+                        </xdr:grpSp>
+                        <xdr:cxnSp macro="">
+                          <xdr:nvCxnSpPr>
+                            <xdr:cNvPr id="23" name="AutoShape 57"/>
+                            <xdr:cNvCxnSpPr>
+                              <a:cxnSpLocks noChangeShapeType="1"/>
+                              <a:stCxn id="27" idx="4"/>
+                              <a:endCxn id="24" idx="0"/>
+                            </xdr:cNvCxnSpPr>
+                          </xdr:nvCxnSpPr>
+                          <xdr:spPr bwMode="auto">
+                            <a:xfrm flipH="1">
+                              <a:off x="4231563" y="5480121"/>
+                              <a:ext cx="4433" cy="387807"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="straightConnector1">
+                              <a:avLst/>
+                            </a:prstGeom>
+                            <a:noFill/>
+                            <a:ln w="19050">
+                              <a:solidFill>
+                                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                              </a:solidFill>
+                              <a:round/>
+                              <a:headEnd/>
+                              <a:tailEnd type="triangle" w="med" len="med"/>
+                            </a:ln>
+                            <a:extLst>
+                              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                                  <a:noFill/>
+                                </a14:hiddenFill>
+                              </a:ext>
+                            </a:extLst>
+                          </xdr:spPr>
+                        </xdr:cxnSp>
+                        <xdr:sp macro="" textlink="">
+                          <xdr:nvSpPr>
+                            <xdr:cNvPr id="24" name="フローチャート : 端子 23"/>
+                            <xdr:cNvSpPr/>
+                          </xdr:nvSpPr>
+                          <xdr:spPr>
+                            <a:xfrm>
+                              <a:off x="3690543" y="5867928"/>
+                              <a:ext cx="1082040" cy="441875"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="flowChartTerminator">
+                              <a:avLst/>
+                            </a:prstGeom>
+                          </xdr:spPr>
+                          <xdr:style>
+                            <a:lnRef idx="0">
+                              <a:schemeClr val="accent2"/>
+                            </a:lnRef>
+                            <a:fillRef idx="3">
+                              <a:schemeClr val="accent2"/>
+                            </a:fillRef>
+                            <a:effectRef idx="3">
+                              <a:schemeClr val="accent2"/>
+                            </a:effectRef>
+                            <a:fontRef idx="minor">
+                              <a:schemeClr val="lt1"/>
+                            </a:fontRef>
+                          </xdr:style>
+                          <xdr:txBody>
+                            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+                            <a:lstStyle/>
+                            <a:p>
+                              <a:pPr algn="ctr"/>
+                              <a:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="bg1"/>
+                                  </a:solidFill>
+                                  <a:latin typeface="+mn-ea"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                                </a:rPr>
+                                <a:t>End</a:t>
+                              </a:r>
+                              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="bg1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-ea"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                              </a:endParaRPr>
+                            </a:p>
+                          </xdr:txBody>
+                        </xdr:sp>
+                      </xdr:grpSp>
+                    </xdr:grpSp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="19" name="フローチャート: 処理 18"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="5235387" y="3345707"/>
+                          <a:ext cx="1344707" cy="466164"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="flowChartProcess">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:solidFill>
+                          <a:schemeClr val="tx2">
+                            <a:lumMod val="60000"/>
+                            <a:lumOff val="40000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="ctr"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-ea"/>
+                              <a:ea typeface="+mn-ea"/>
+                            </a:rPr>
+                            <a:t>exist = 0</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-ea"/>
+                            <a:ea typeface="+mn-ea"/>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="17" name="フローチャート: 処理 16"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3513669" y="3208865"/>
+                        <a:ext cx="1332000" cy="457531"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="flowChartProcess">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-ea"/>
+                            <a:ea typeface="+mn-ea"/>
+                          </a:rPr>
+                          <a:t>exist = 1</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-ea"/>
+                          <a:ea typeface="+mn-ea"/>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="15" name="AutoShape 57"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:cxnSpLocks noChangeShapeType="1"/>
+                      <a:stCxn id="17" idx="2"/>
+                      <a:endCxn id="27" idx="1"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr bwMode="auto">
+                    <a:xfrm>
+                      <a:off x="4179669" y="3666396"/>
+                      <a:ext cx="2541" cy="418217"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="straightConnector1">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                      </a:solidFill>
+                      <a:round/>
+                      <a:headEnd/>
+                      <a:tailEnd type="triangle" w="med" len="med"/>
+                    </a:ln>
+                    <a:extLst>
+                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                          <a:noFill/>
+                        </a14:hiddenFill>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:spPr>
+                </xdr:cxnSp>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="10" name="AutoShape 57"/>
+                <xdr:cNvCxnSpPr>
+                  <a:cxnSpLocks noChangeShapeType="1"/>
+                  <a:stCxn id="19" idx="2"/>
+                  <a:endCxn id="27" idx="5"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr bwMode="auto">
+                <a:xfrm rot="5400000">
+                  <a:off x="4040390" y="3583916"/>
+                  <a:ext cx="705166" cy="1139778"/>
+                </a:xfrm>
+                <a:prstGeom prst="bentConnector2">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:round/>
+                  <a:headEnd/>
+                  <a:tailEnd type="triangle" w="med" len="med"/>
+                </a:ln>
+                <a:extLst>
+                  <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                    <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                      <a:noFill/>
+                    </a14:hiddenFill>
+                  </a:ext>
+                </a:extLst>
+              </xdr:spPr>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="フローチャート: データ 7"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4705573" y="474305"/>
+                <a:ext cx="1379678" cy="515808"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartInputOutput">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>input</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>code</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="6" name="AutoShape 56"/>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeShapeType="1"/>
+              <a:stCxn id="4" idx="2"/>
+              <a:endCxn id="26" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3536362" y="1493912"/>
+              <a:ext cx="2789" cy="334882"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="フローチャート : 定義済み処理 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="784861" y="1028700"/>
+            <a:ext cx="1684020" cy="549172"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>商品照合</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -6904,28 +7662,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="Q8:Q26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="24" width="8.77734375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.77734375" style="1"/>
   </cols>
-  <sheetData>
-    <row r="8" spans="17:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="17:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="17:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="17:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" scale="42" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6934,8 +7686,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6955,11 +7707,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6974,10 +7729,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6991,14 +7746,15 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/処理フロー.xlsx
+++ b/document/処理フロー.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcpro32.PCPRO\Documents\project001\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4668" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="全体フロー " sheetId="8" r:id="rId1"/>
@@ -16,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">QRコード取得!$A$1:$J$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">QRコード有無!$A$1:$J$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">商品有無!$A$1:$S$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">商品有無!$A$1:$T$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'全体フロー '!$A$1:$J$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">窓口誘導!$A$1:$S$49</definedName>
   </definedNames>
@@ -236,16 +241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579681</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1344</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -254,8 +259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3603812" y="1631578"/>
-          <a:ext cx="1202614" cy="251011"/>
+          <a:off x="3484806" y="1238250"/>
+          <a:ext cx="1163394" cy="248063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,8 +476,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -481,8 +486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2402541" y="1380566"/>
-          <a:ext cx="1201271" cy="502023"/>
+          <a:off x="2324100" y="1362076"/>
+          <a:ext cx="1162050" cy="247649"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -541,14 +546,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -557,8 +562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3003176" y="1882589"/>
-          <a:ext cx="1201271" cy="251012"/>
+          <a:off x="2905125" y="1609725"/>
+          <a:ext cx="1162050" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -627,15 +632,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600347</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>580344</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -648,8 +653,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3002888" y="1882589"/>
-          <a:ext cx="288" cy="384138"/>
+          <a:off x="2904444" y="1609725"/>
+          <a:ext cx="681" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -678,14 +683,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14014</xdr:rowOff>
+      <xdr:colOff>579663</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -694,8 +699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2402541" y="2266727"/>
-          <a:ext cx="1199348" cy="257405"/>
+          <a:off x="2324100" y="2105025"/>
+          <a:ext cx="1160688" cy="254043"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -855,13 +860,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -871,8 +876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2407920" y="4876801"/>
-          <a:ext cx="1203960" cy="243839"/>
+          <a:off x="2333625" y="5250657"/>
+          <a:ext cx="1166813" cy="250031"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -916,9 +921,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600347</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14014</xdr:rowOff>
+      <xdr:colOff>580344</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -937,8 +942,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3002888" y="2524132"/>
-          <a:ext cx="289" cy="236999"/>
+          <a:off x="2904444" y="2359068"/>
+          <a:ext cx="682" cy="365084"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1244,14 +1249,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1264,9 +1269,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="3009900" y="4632961"/>
-          <a:ext cx="1" cy="243840"/>
+        <a:xfrm>
+          <a:off x="2903964" y="4767147"/>
+          <a:ext cx="0" cy="501805"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1295,14 +1300,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>124809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>124809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1311,8 +1316,86 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3603812" y="4016189"/>
-          <a:ext cx="1201270" cy="125506"/>
+          <a:off x="3468414" y="3744309"/>
+          <a:ext cx="1156138" cy="374431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品無し、照合失敗</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="469" name="正方形/長方形 468"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3003177" y="4141695"/>
+          <a:ext cx="1201271" cy="251013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1344,84 +1427,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>商品無し</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="469" name="正方形/長方形 468"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3003177" y="4141695"/>
-          <a:ext cx="1201271" cy="251013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -1469,8 +1474,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3003176" y="1129554"/>
-          <a:ext cx="0" cy="251012"/>
+          <a:off x="2905125" y="1114426"/>
+          <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1548,9 +1553,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1569,8 +1574,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1201271" y="1631578"/>
-          <a:ext cx="1201270" cy="1133138"/>
+          <a:off x="1162330" y="1485901"/>
+          <a:ext cx="1161770" cy="1241836"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1597,8 +1602,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600634</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1801</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>3587</xdr:rowOff>
     </xdr:from>
@@ -1615,8 +1620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600634" y="2764716"/>
-          <a:ext cx="1201272" cy="247426"/>
+          <a:off x="581584" y="2736848"/>
+          <a:ext cx="1157764" cy="244892"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1670,13 +1675,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1685,8 +1690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4204447" y="4518213"/>
-          <a:ext cx="1201272" cy="251012"/>
+          <a:off x="4083844" y="4500563"/>
+          <a:ext cx="1166813" cy="250031"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1739,14 +1744,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1755,8 +1760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4204447" y="2266727"/>
-          <a:ext cx="1201271" cy="251012"/>
+          <a:off x="4067175" y="2114550"/>
+          <a:ext cx="1162050" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1810,13 +1815,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>8966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1829,8 +1834,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3603812" y="4016189"/>
-          <a:ext cx="1201271" cy="502024"/>
+          <a:off x="3468414" y="4002897"/>
+          <a:ext cx="1156139" cy="490275"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1857,15 +1862,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>601306</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>901</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>601979</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1874,16 +1879,18 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="532" idx="2"/>
-          <a:endCxn id="148" idx="1"/>
+          <a:endCxn id="148" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="769283" y="3360084"/>
-          <a:ext cx="2072640" cy="1204633"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+          <a:off x="904164" y="3269152"/>
+          <a:ext cx="2258122" cy="1741478"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 88889"/>
+          </a:avLst>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="12700">
@@ -1909,14 +1916,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1929,58 +1936,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3603812" y="1631578"/>
-          <a:ext cx="1201270" cy="635149"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1171" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="542" idx="2"/>
-          <a:endCxn id="148" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="4030981" y="4213861"/>
-          <a:ext cx="365760" cy="1203961"/>
+          <a:off x="3486150" y="1485901"/>
+          <a:ext cx="1162050" cy="628649"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2097,15 +2054,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2114,17 +2071,18 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="547" idx="3"/>
-          <a:endCxn id="148" idx="3"/>
+          <a:endCxn id="148" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3611880" y="2324101"/>
-          <a:ext cx="1805940" cy="2674620"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+          <a:off x="2907632" y="2265446"/>
+          <a:ext cx="2326105" cy="2998371"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -12658"/>
+            <a:gd name="adj1" fmla="val -9828"/>
+            <a:gd name="adj2" fmla="val 91715"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -2151,14 +2109,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2167,8 +2125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1801906" y="1631578"/>
-          <a:ext cx="1201270" cy="627529"/>
+          <a:off x="1743075" y="1478033"/>
+          <a:ext cx="1162050" cy="503167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2237,6 +2195,108 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1794</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="106" idx="1"/>
+          <a:endCxn id="532" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1739348" y="2857502"/>
+          <a:ext cx="579783" cy="1792"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="542" idx="2"/>
+          <a:endCxn id="148" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="3529264" y="4140869"/>
+          <a:ext cx="501317" cy="1744579"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2399,8 +2459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2414954" y="1969477"/>
-          <a:ext cx="1207477" cy="246184"/>
+          <a:off x="2319130" y="2112065"/>
+          <a:ext cx="1159566" cy="247331"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -2687,8 +2747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4226169" y="1969478"/>
-          <a:ext cx="1207477" cy="246184"/>
+          <a:off x="4067175" y="2105026"/>
+          <a:ext cx="1162050" cy="247649"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2714,7 +2774,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2724,7 +2784,7 @@
             </a:rPr>
             <a:t>タブレット誘導</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -3552,8 +3612,8 @@
       <xdr:rowOff>123092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>603738</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4905</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
@@ -3935,15 +3995,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>599292</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>459</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>578826</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3952,8 +4012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3609192" y="2194560"/>
-          <a:ext cx="1206648" cy="365760"/>
+          <a:off x="2894594" y="1992923"/>
+          <a:ext cx="1157194" cy="373674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3983,7 +4043,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
@@ -4017,16 +4077,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2688</xdr:colOff>
+      <xdr:colOff>351233</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108512</xdr:rowOff>
+      <xdr:rowOff>124810</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4035,8 +4095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2411896" y="238539"/>
-          <a:ext cx="1208635" cy="227782"/>
+          <a:off x="1504683" y="264934"/>
+          <a:ext cx="1158826" cy="234307"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -4087,16 +4147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>112097</xdr:rowOff>
+      <xdr:rowOff>15313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4105,8 +4165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1808922" y="715617"/>
-          <a:ext cx="2411895" cy="231367"/>
+          <a:off x="926614" y="764175"/>
+          <a:ext cx="2312276" cy="237893"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4154,16 +4214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5028</xdr:colOff>
+      <xdr:colOff>353573</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4172,8 +4232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2411896" y="1795043"/>
-          <a:ext cx="1210975" cy="232540"/>
+          <a:off x="1504683" y="1872156"/>
+          <a:ext cx="1161166" cy="249621"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4230,16 +4290,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5860</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>78890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8549</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354405</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357094</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>64342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4248,8 +4308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2408401" y="4973619"/>
-          <a:ext cx="1203960" cy="243840"/>
+          <a:off x="2088612" y="5687981"/>
+          <a:ext cx="1158827" cy="242447"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -4292,16 +4352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>112097</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7173</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349994</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4314,8 +4374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3014870" y="946984"/>
-          <a:ext cx="0" cy="252885"/>
+          <a:off x="2082752" y="1002068"/>
+          <a:ext cx="1449" cy="246035"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4342,16 +4402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108512</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1344</xdr:colOff>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349889</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4364,8 +4424,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3014870" y="466321"/>
-          <a:ext cx="1344" cy="249296"/>
+          <a:off x="2082752" y="499241"/>
+          <a:ext cx="1344" cy="264934"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4393,15 +4453,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>597946</xdr:colOff>
+      <xdr:colOff>349890</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7170</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122407</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4409,13 +4469,12 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="105" idx="1"/>
-          <a:endCxn id="118" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1200920" y="1911312"/>
-          <a:ext cx="1210977" cy="1077597"/>
+          <a:off x="927959" y="1996966"/>
+          <a:ext cx="576724" cy="2618613"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4442,16 +4501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2689</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>337398</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117842</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4460,8 +4519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4220817" y="1796216"/>
-          <a:ext cx="1208637" cy="231367"/>
+          <a:off x="3805812" y="2247878"/>
+          <a:ext cx="1167285" cy="241361"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4487,7 +4546,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4495,9 +4554,9 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ランダム案内</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:t>ランダム値生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -4513,29 +4572,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>597945</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>111162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7206</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>78889</xdr:rowOff>
+      <xdr:colOff>349889</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355749</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71515</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="111" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="118" idx="4"/>
           <a:endCxn id="106" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1555841" y="3519077"/>
-          <a:ext cx="1097280" cy="1811802"/>
+          <a:off x="1637424" y="4657379"/>
+          <a:ext cx="321136" cy="1740067"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4564,15 +4622,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>602973</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>348754</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>7171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2689</xdr:colOff>
-      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4582,8 +4640,1645 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3617843" y="2511832"/>
-          <a:ext cx="1208637" cy="231368"/>
+          <a:off x="926823" y="2372235"/>
+          <a:ext cx="1155929" cy="248782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="578069" y="1497724"/>
+          <a:ext cx="1156138" cy="499242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>初回入力待ちから</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>120</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>秒経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351443</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="フローチャート : 定義済み処理 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504683" y="1248103"/>
+          <a:ext cx="1159036" cy="264934"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>入力待ち</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349994</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>351059</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="114" idx="2"/>
+          <a:endCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2084201" y="1513037"/>
+          <a:ext cx="1065" cy="359119"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353573</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341032</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="105" idx="3"/>
+          <a:endCxn id="110" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2665849" y="1996967"/>
+          <a:ext cx="1721666" cy="250911"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2689</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="フローチャート: データ 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4606485"/>
+          <a:ext cx="1160343" cy="749496"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タイム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>349371</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="フローチャート: データ 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2661647" y="4617983"/>
+          <a:ext cx="1155312" cy="750760"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351234</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="フローチャート: データ 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504683" y="4617983"/>
+          <a:ext cx="1158827" cy="750408"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082752" y="2114196"/>
+          <a:ext cx="1156138" cy="257201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>読込成功</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349891</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>351060</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="120" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="836580" y="3369295"/>
+          <a:ext cx="2496206" cy="1169"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349889</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355749</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="120" idx="4"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2216266" y="5236221"/>
+          <a:ext cx="319590" cy="583929"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358153</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="フローチャート : 判断 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816959" y="2745828"/>
+          <a:ext cx="1165746" cy="249620"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348223</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348223</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>117385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="フローチャート : 定義済み処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816637" y="3369879"/>
+          <a:ext cx="1734207" cy="242196"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カメラ位置の案内</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348224</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="フローチャート : 定義済み処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816959" y="3751483"/>
+          <a:ext cx="1733886" cy="242448"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タブレットモニターによる案内</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348224</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="フローチャート : 定義済み処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816959" y="4125914"/>
+          <a:ext cx="1733886" cy="242448"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>再度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>QR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コードの提示を促す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353349</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="3482550" y="3329857"/>
+          <a:ext cx="1251691" cy="582873"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9607"/>
+            <a:gd name="adj2" fmla="val 138931"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="3860537" y="2951870"/>
+          <a:ext cx="495717" cy="582874"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25744"/>
+            <a:gd name="adj2" fmla="val 138931"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348546</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="3670727" y="3143601"/>
+          <a:ext cx="875339" cy="582873"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14016"/>
+            <a:gd name="adj2" fmla="val 138931"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351443</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348223</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="114" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2663719" y="1380571"/>
+          <a:ext cx="2887125" cy="2110594"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4445"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351443</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348224</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="67" idx="3"/>
+          <a:endCxn id="114" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2663719" y="1380571"/>
+          <a:ext cx="2887126" cy="2492137"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351443</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348224</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="114" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2663719" y="1380571"/>
+          <a:ext cx="2887126" cy="2866568"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4445"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238890" y="3245069"/>
+          <a:ext cx="578069" cy="249621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>367777</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238890" y="3621250"/>
+          <a:ext cx="597301" cy="249620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348545</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>367777</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238890" y="3993931"/>
+          <a:ext cx="597301" cy="256948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>351059</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348958</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1413535" y="2793507"/>
+          <a:ext cx="2497499" cy="1154037"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10294"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355872</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355871</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="正方形/長方形 232"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2668148" y="1747345"/>
+          <a:ext cx="1156137" cy="234716"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4615,16 +6310,35 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>キャンセル</a:t>
-          </a:r>
+            <a:t>秒経過</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4632,26 +6346,551 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>599289</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>39444</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341032</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>344665</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="110" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4387515" y="2489239"/>
+          <a:ext cx="3633" cy="256589"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1344</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>32272</xdr:rowOff>
+      <xdr:colOff>348958</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="296" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="119" idx="4"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2794046" y="5242723"/>
+          <a:ext cx="319238" cy="571277"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2688</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+        <xdr:cNvPr id="34" name="フローチャート : 端子 146"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800560" y="2047538"/>
-          <a:ext cx="1203960" cy="243840"/>
+          <a:off x="1737339" y="125185"/>
+          <a:ext cx="1159484" cy="248488"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2699</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="フローチャート : 定義済み処理 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1160353" y="622788"/>
+          <a:ext cx="2312609" cy="249116"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品の有無を照合する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="フローチャート : 判断 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1742434" y="1121020"/>
+          <a:ext cx="1151701" cy="249114"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>576138</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="フローチャート : 端子 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733792" y="4982308"/>
+          <a:ext cx="1160343" cy="249115"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>End</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2977</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2315308" y="871904"/>
+          <a:ext cx="2977" cy="249116"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1773</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2315308" y="373673"/>
+          <a:ext cx="1773" cy="249115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3543</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577483</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="114" idx="4"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1197688" y="3866032"/>
+          <a:ext cx="500958" cy="1731594"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577861</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1734207" y="1373190"/>
+          <a:ext cx="1155930" cy="249344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4683,17 +6922,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>120</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4702,7 +6930,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>秒経過</a:t>
+            <a:t>商品有り</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4711,102 +6939,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>7173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>602973</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="フローチャート : 定義済み処理 113"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2411896" y="1199869"/>
-          <a:ext cx="1205947" cy="231366"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>入力待ち</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2514</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6000</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5924</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>457</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="AutoShape 57"/>
+        <xdr:cNvPr id="51" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="114" idx="2"/>
-          <a:endCxn id="105" idx="0"/>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="81" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3014870" y="1431235"/>
-          <a:ext cx="2514" cy="363808"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+          <a:off x="2894135" y="1245578"/>
+          <a:ext cx="1742404" cy="498687"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -4831,360 +6989,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5028</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576189</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3587</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="105" idx="3"/>
-          <a:endCxn id="110" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3622871" y="1911313"/>
-          <a:ext cx="597946" cy="587"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>602973</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1345</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7173</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="AutoShape 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="110" idx="0"/>
-          <a:endCxn id="114" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3981158" y="952237"/>
-          <a:ext cx="480664" cy="1207293"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>596600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>599289</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>111163</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="フローチャート: データ 117"/>
+        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="596600" y="3144818"/>
-          <a:ext cx="1203960" cy="731521"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartInputOutput">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>output</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>タイム</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>599289</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1344</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>111163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="フローチャート: データ 118"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1800560" y="3144818"/>
-          <a:ext cx="1203960" cy="731521"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartInputOutput">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>output</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>QR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>コード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1344</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4033</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>111163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="フローチャート: データ 119"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3004520" y="3144818"/>
-          <a:ext cx="1203960" cy="731521"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartInputOutput">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>output</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>キャンセル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600634</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>25337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3681</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>14343</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2402540" y="2660961"/>
-          <a:ext cx="1204953" cy="240017"/>
+          <a:off x="2888465" y="998483"/>
+          <a:ext cx="1158018" cy="235906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5224,7 +7048,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>読込成功</a:t>
+            <a:t>商品無し</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:solidFill>
@@ -5241,30 +7065,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2515</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119269</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2690</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7170</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577484</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577043</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="AutoShape 57"/>
+        <xdr:cNvPr id="78" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="105" idx="2"/>
-          <a:endCxn id="120" idx="1"/>
+          <a:stCxn id="115" idx="4"/>
+          <a:endCxn id="39" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2838295" y="2206672"/>
-          <a:ext cx="961327" cy="603148"/>
+        <a:xfrm rot="5400000">
+          <a:off x="3221033" y="3574510"/>
+          <a:ext cx="500729" cy="2314866"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5293,35 +7117,232 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2699</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="フローチャート : 定義済み処理 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1158837" y="2246333"/>
+          <a:ext cx="2309577" cy="244617"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タブレットに商品の画像を表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7207</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>111163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2689</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>78890</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="フローチャート : 定義済み処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1736481" y="1743807"/>
+          <a:ext cx="1157654" cy="243172"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>音声出力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11848</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="フローチャート : 定義済み処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4051789" y="1744265"/>
+          <a:ext cx="1169501" cy="242400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>音声出力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2977</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="AutoShape 57"/>
+        <xdr:cNvPr id="85" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="120" idx="4"/>
-          <a:endCxn id="106" idx="0"/>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="80" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="2759802" y="4126920"/>
-          <a:ext cx="1097280" cy="596118"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm flipH="1">
+          <a:off x="2315308" y="1370906"/>
+          <a:ext cx="2977" cy="372901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="12700">
@@ -5347,33 +7368,31 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>111162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7207</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>78889</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="AutoShape 57"/>
+        <xdr:cNvPr id="96" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="119" idx="4"/>
-          <a:endCxn id="106" idx="0"/>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="79" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2157822" y="4121057"/>
-          <a:ext cx="1097280" cy="607842"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="2315308" y="1986979"/>
+          <a:ext cx="0" cy="255059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="12700">
@@ -5397,35 +7416,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3543</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>601805</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119269</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2515</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7170</xdr:rowOff>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="AutoShape 57"/>
+        <xdr:cNvPr id="112" name="AutoShape 57"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="105" idx="2"/>
-          <a:endCxn id="119" idx="1"/>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="114" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="2233392" y="2204917"/>
-          <a:ext cx="961327" cy="606658"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="582370" y="1245577"/>
+          <a:ext cx="1160064" cy="2491154"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="12700">
@@ -5447,967 +7464,722 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>272460</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7085</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121831</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="フローチャート: データ 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3736731"/>
+          <a:ext cx="1164739" cy="744619"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>照合失敗</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>575256</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="フローチャート: データ 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048218" y="3736731"/>
+          <a:ext cx="1161224" cy="744848"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品無し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571742</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="フローチャート: データ 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1729396" y="3736731"/>
+          <a:ext cx="1164739" cy="744496"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品有り</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>543344</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>545224</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10564</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="72" name="グループ化 71"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7435260" y="1265816"/>
-          <a:ext cx="3369900" cy="3951748"/>
-          <a:chOff x="729660" y="275216"/>
-          <a:chExt cx="3446100" cy="5226828"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="65" name="グループ化 64"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="729660" y="275216"/>
-            <a:ext cx="3446100" cy="5226828"/>
-            <a:chOff x="2639151" y="170329"/>
-            <a:chExt cx="3446100" cy="5310797"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="64" name="グループ化 63"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="2639151" y="170329"/>
-              <a:ext cx="3446100" cy="5310797"/>
-              <a:chOff x="2639151" y="170329"/>
-              <a:chExt cx="3446100" cy="5310797"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="2" name="グループ化 1"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="2639151" y="170329"/>
-                <a:ext cx="3328144" cy="5310797"/>
-                <a:chOff x="2307070" y="393999"/>
-                <a:chExt cx="3328144" cy="5194104"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="5" name="グループ化 4"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="2307070" y="393999"/>
-                  <a:ext cx="3328144" cy="5194104"/>
-                  <a:chOff x="3267959" y="306721"/>
-                  <a:chExt cx="3328144" cy="5111692"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="3585887" y="2723057"/>
-                    <a:ext cx="513231" cy="205868"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>ＹＥＳ</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="4987893" y="2310455"/>
-                    <a:ext cx="497862" cy="296984"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mj-ea"/>
-                        <a:ea typeface="+mj-ea"/>
-                      </a:rPr>
-                      <a:t>NO</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="9" name="グループ化 8"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="3267959" y="306721"/>
-                    <a:ext cx="3328144" cy="5111692"/>
-                    <a:chOff x="3278845" y="306721"/>
-                    <a:chExt cx="3328144" cy="5111692"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="10" name="グループ化 9"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="3278845" y="306721"/>
-                      <a:ext cx="3328144" cy="5111692"/>
-                      <a:chOff x="3278845" y="306721"/>
-                      <a:chExt cx="3328144" cy="5111692"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:grpSp>
-                    <xdr:nvGrpSpPr>
-                      <xdr:cNvPr id="12" name="グループ化 11"/>
-                      <xdr:cNvGrpSpPr/>
-                    </xdr:nvGrpSpPr>
-                    <xdr:grpSpPr>
-                      <a:xfrm>
-                        <a:off x="3278845" y="306721"/>
-                        <a:ext cx="3328144" cy="5111692"/>
-                        <a:chOff x="3251950" y="313764"/>
-                        <a:chExt cx="3328144" cy="5332650"/>
-                      </a:xfrm>
-                    </xdr:grpSpPr>
-                    <xdr:grpSp>
-                      <xdr:nvGrpSpPr>
-                        <xdr:cNvPr id="18" name="グループ化 17"/>
-                        <xdr:cNvGrpSpPr/>
-                      </xdr:nvGrpSpPr>
-                      <xdr:grpSpPr>
-                        <a:xfrm>
-                          <a:off x="3251950" y="313764"/>
-                          <a:ext cx="2655791" cy="5332650"/>
-                          <a:chOff x="3251950" y="313764"/>
-                          <a:chExt cx="2655791" cy="5332650"/>
-                        </a:xfrm>
-                      </xdr:grpSpPr>
-                      <xdr:cxnSp macro="">
-                        <xdr:nvCxnSpPr>
-                          <xdr:cNvPr id="20" name="AutoShape 56"/>
-                          <xdr:cNvCxnSpPr>
-                            <a:cxnSpLocks noChangeShapeType="1"/>
-                            <a:stCxn id="31" idx="2"/>
-                            <a:endCxn id="71" idx="0"/>
-                          </xdr:cNvCxnSpPr>
-                        </xdr:nvCxnSpPr>
-                        <xdr:spPr bwMode="auto">
-                          <a:xfrm flipH="1">
-                            <a:off x="4149161" y="755639"/>
-                            <a:ext cx="3742" cy="326864"/>
-                          </a:xfrm>
-                          <a:prstGeom prst="straightConnector1">
-                            <a:avLst/>
-                          </a:prstGeom>
-                          <a:noFill/>
-                          <a:ln w="19050">
-                            <a:solidFill>
-                              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                            </a:solidFill>
-                            <a:round/>
-                            <a:headEnd/>
-                            <a:tailEnd type="triangle" w="med" len="med"/>
-                          </a:ln>
-                          <a:extLst>
-                            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                <a:noFill/>
-                              </a14:hiddenFill>
-                            </a:ext>
-                          </a:extLst>
-                        </xdr:spPr>
-                      </xdr:cxnSp>
-                      <xdr:grpSp>
-                        <xdr:nvGrpSpPr>
-                          <xdr:cNvPr id="21" name="グループ化 20"/>
-                          <xdr:cNvGrpSpPr/>
-                        </xdr:nvGrpSpPr>
-                        <xdr:grpSpPr>
-                          <a:xfrm>
-                            <a:off x="3251950" y="313764"/>
-                            <a:ext cx="2655791" cy="5332650"/>
-                            <a:chOff x="3332631" y="977153"/>
-                            <a:chExt cx="2655791" cy="5332650"/>
-                          </a:xfrm>
-                        </xdr:grpSpPr>
-                        <xdr:grpSp>
-                          <xdr:nvGrpSpPr>
-                            <xdr:cNvPr id="30" name="グループ化 29"/>
-                            <xdr:cNvGrpSpPr/>
-                          </xdr:nvGrpSpPr>
-                          <xdr:grpSpPr>
-                            <a:xfrm>
-                              <a:off x="3332631" y="977153"/>
-                              <a:ext cx="2655791" cy="4502968"/>
-                              <a:chOff x="831477" y="409426"/>
-                              <a:chExt cx="2655791" cy="4663705"/>
-                            </a:xfrm>
-                          </xdr:grpSpPr>
-                          <xdr:sp macro="" textlink="">
-                            <xdr:nvSpPr>
-                              <xdr:cNvPr id="31" name="フローチャート : 端子 30"/>
-                              <xdr:cNvSpPr/>
-                            </xdr:nvSpPr>
-                            <xdr:spPr>
-                              <a:xfrm>
-                                <a:off x="1191410" y="409426"/>
-                                <a:ext cx="1082040" cy="457648"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="flowChartTerminator">
-                                <a:avLst/>
-                              </a:prstGeom>
-                            </xdr:spPr>
-                            <xdr:style>
-                              <a:lnRef idx="0">
-                                <a:schemeClr val="accent2"/>
-                              </a:lnRef>
-                              <a:fillRef idx="3">
-                                <a:schemeClr val="accent2"/>
-                              </a:fillRef>
-                              <a:effectRef idx="3">
-                                <a:schemeClr val="accent2"/>
-                              </a:effectRef>
-                              <a:fontRef idx="minor">
-                                <a:schemeClr val="lt1"/>
-                              </a:fontRef>
-                            </xdr:style>
-                            <xdr:txBody>
-                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-                              <a:lstStyle/>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="bg1"/>
-                                    </a:solidFill>
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                  </a:rPr>
-                                  <a:t>Start</a:t>
-                                </a:r>
-                                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="bg1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-ea"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                </a:endParaRPr>
-                              </a:p>
-                            </xdr:txBody>
-                          </xdr:sp>
-                          <xdr:sp macro="" textlink="">
-                            <xdr:nvSpPr>
-                              <xdr:cNvPr id="32" name="フローチャート : 判断 31"/>
-                              <xdr:cNvSpPr/>
-                            </xdr:nvSpPr>
-                            <xdr:spPr>
-                              <a:xfrm>
-                                <a:off x="831477" y="2134159"/>
-                                <a:ext cx="1800000" cy="921409"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="flowChartDecision">
-                                <a:avLst/>
-                              </a:prstGeom>
-                            </xdr:spPr>
-                            <xdr:style>
-                              <a:lnRef idx="1">
-                                <a:schemeClr val="accent6"/>
-                              </a:lnRef>
-                              <a:fillRef idx="2">
-                                <a:schemeClr val="accent6"/>
-                              </a:fillRef>
-                              <a:effectRef idx="1">
-                                <a:schemeClr val="accent6"/>
-                              </a:effectRef>
-                              <a:fontRef idx="minor">
-                                <a:schemeClr val="dk1"/>
-                              </a:fontRef>
-                            </xdr:style>
-                            <xdr:txBody>
-                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-                              <a:lstStyle/>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                  </a:rPr>
-                                  <a:t>該当の</a:t>
-                                </a:r>
-                                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
-                                  <a:latin typeface="+mn-ea"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                </a:endParaRPr>
-                              </a:p>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                  </a:rPr>
-                                  <a:t>商品有り？</a:t>
-                                </a:r>
-                              </a:p>
-                            </xdr:txBody>
-                          </xdr:sp>
-                          <xdr:sp macro="" textlink="">
-                            <xdr:nvSpPr>
-                              <xdr:cNvPr id="33" name="フローチャート: データ 32"/>
-                              <xdr:cNvSpPr/>
-                            </xdr:nvSpPr>
-                            <xdr:spPr>
-                              <a:xfrm>
-                                <a:off x="969032" y="4491305"/>
-                                <a:ext cx="1531620" cy="581826"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="flowChartInputOutput">
-                                <a:avLst/>
-                              </a:prstGeom>
-                            </xdr:spPr>
-                            <xdr:style>
-                              <a:lnRef idx="1">
-                                <a:schemeClr val="dk1"/>
-                              </a:lnRef>
-                              <a:fillRef idx="2">
-                                <a:schemeClr val="dk1"/>
-                              </a:fillRef>
-                              <a:effectRef idx="1">
-                                <a:schemeClr val="dk1"/>
-                              </a:effectRef>
-                              <a:fontRef idx="minor">
-                                <a:schemeClr val="dk1"/>
-                              </a:fontRef>
-                            </xdr:style>
-                            <xdr:txBody>
-                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-                              <a:lstStyle/>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                  </a:rPr>
-                                  <a:t>output</a:t>
-                                </a:r>
-                              </a:p>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                  </a:rPr>
-                                  <a:t>exist</a:t>
-                                </a:r>
-                                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                  <a:latin typeface="+mn-ea"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                </a:endParaRPr>
-                              </a:p>
-                            </xdr:txBody>
-                          </xdr:sp>
-                          <xdr:cxnSp macro="">
-                            <xdr:nvCxnSpPr>
-                              <xdr:cNvPr id="35" name="AutoShape 57"/>
-                              <xdr:cNvCxnSpPr>
-                                <a:cxnSpLocks noChangeShapeType="1"/>
-                                <a:stCxn id="32" idx="3"/>
-                                <a:endCxn id="15" idx="0"/>
-                              </xdr:cNvCxnSpPr>
-                            </xdr:nvCxnSpPr>
-                            <xdr:spPr bwMode="auto">
-                              <a:xfrm>
-                                <a:off x="2631477" y="2594864"/>
-                                <a:ext cx="855791" cy="954730"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="bentConnector2">
-                                <a:avLst/>
-                              </a:prstGeom>
-                              <a:noFill/>
-                              <a:ln w="19050">
-                                <a:solidFill>
-                                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                                </a:solidFill>
-                                <a:round/>
-                                <a:headEnd/>
-                                <a:tailEnd type="triangle" w="med" len="med"/>
-                              </a:ln>
-                              <a:extLst>
-                                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                    <a:noFill/>
-                                  </a14:hiddenFill>
-                                </a:ext>
-                              </a:extLst>
-                            </xdr:spPr>
-                          </xdr:cxnSp>
-                          <xdr:cxnSp macro="">
-                            <xdr:nvCxnSpPr>
-                              <xdr:cNvPr id="36" name="AutoShape 57"/>
-                              <xdr:cNvCxnSpPr>
-                                <a:cxnSpLocks noChangeShapeType="1"/>
-                                <a:stCxn id="32" idx="2"/>
-                                <a:endCxn id="13" idx="0"/>
-                              </xdr:cNvCxnSpPr>
-                            </xdr:nvCxnSpPr>
-                            <xdr:spPr bwMode="auto">
-                              <a:xfrm>
-                                <a:off x="1731477" y="3055568"/>
-                                <a:ext cx="824" cy="489520"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="straightConnector1">
-                                <a:avLst/>
-                              </a:prstGeom>
-                              <a:noFill/>
-                              <a:ln w="19050">
-                                <a:solidFill>
-                                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                                </a:solidFill>
-                                <a:round/>
-                                <a:headEnd/>
-                                <a:tailEnd type="triangle" w="med" len="med"/>
-                              </a:ln>
-                              <a:extLst>
-                                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                    <a:noFill/>
-                                  </a14:hiddenFill>
-                                </a:ext>
-                              </a:extLst>
-                            </xdr:spPr>
-                          </xdr:cxnSp>
-                        </xdr:grpSp>
-                        <xdr:cxnSp macro="">
-                          <xdr:nvCxnSpPr>
-                            <xdr:cNvPr id="23" name="AutoShape 57"/>
-                            <xdr:cNvCxnSpPr>
-                              <a:cxnSpLocks noChangeShapeType="1"/>
-                              <a:stCxn id="33" idx="4"/>
-                              <a:endCxn id="24" idx="0"/>
-                            </xdr:cNvCxnSpPr>
-                          </xdr:nvCxnSpPr>
-                          <xdr:spPr bwMode="auto">
-                            <a:xfrm flipH="1">
-                              <a:off x="4231563" y="5480121"/>
-                              <a:ext cx="4433" cy="387807"/>
-                            </a:xfrm>
-                            <a:prstGeom prst="straightConnector1">
-                              <a:avLst/>
-                            </a:prstGeom>
-                            <a:noFill/>
-                            <a:ln w="19050">
-                              <a:solidFill>
-                                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                              </a:solidFill>
-                              <a:round/>
-                              <a:headEnd/>
-                              <a:tailEnd type="triangle" w="med" len="med"/>
-                            </a:ln>
-                            <a:extLst>
-                              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                  <a:noFill/>
-                                </a14:hiddenFill>
-                              </a:ext>
-                            </a:extLst>
-                          </xdr:spPr>
-                        </xdr:cxnSp>
-                        <xdr:sp macro="" textlink="">
-                          <xdr:nvSpPr>
-                            <xdr:cNvPr id="24" name="フローチャート : 端子 23"/>
-                            <xdr:cNvSpPr/>
-                          </xdr:nvSpPr>
-                          <xdr:spPr>
-                            <a:xfrm>
-                              <a:off x="3690543" y="5867928"/>
-                              <a:ext cx="1082040" cy="441875"/>
-                            </a:xfrm>
-                            <a:prstGeom prst="flowChartTerminator">
-                              <a:avLst/>
-                            </a:prstGeom>
-                          </xdr:spPr>
-                          <xdr:style>
-                            <a:lnRef idx="0">
-                              <a:schemeClr val="accent2"/>
-                            </a:lnRef>
-                            <a:fillRef idx="3">
-                              <a:schemeClr val="accent2"/>
-                            </a:fillRef>
-                            <a:effectRef idx="3">
-                              <a:schemeClr val="accent2"/>
-                            </a:effectRef>
-                            <a:fontRef idx="minor">
-                              <a:schemeClr val="lt1"/>
-                            </a:fontRef>
-                          </xdr:style>
-                          <xdr:txBody>
-                            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-                            <a:lstStyle/>
-                            <a:p>
-                              <a:pPr algn="ctr"/>
-                              <a:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="bg1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-ea"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                </a:rPr>
-                                <a:t>End</a:t>
-                              </a:r>
-                              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-ea"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                              </a:endParaRPr>
-                            </a:p>
-                          </xdr:txBody>
-                        </xdr:sp>
-                      </xdr:grpSp>
-                    </xdr:grpSp>
-                    <xdr:sp macro="" textlink="">
-                      <xdr:nvSpPr>
-                        <xdr:cNvPr id="15" name="フローチャート: 処理 14"/>
-                        <xdr:cNvSpPr/>
-                      </xdr:nvSpPr>
-                      <xdr:spPr>
-                        <a:xfrm>
-                          <a:off x="5235387" y="3345707"/>
-                          <a:ext cx="1344707" cy="466164"/>
-                        </a:xfrm>
-                        <a:prstGeom prst="flowChartProcess">
-                          <a:avLst/>
-                        </a:prstGeom>
-                        <a:solidFill>
-                          <a:schemeClr val="tx2">
-                            <a:lumMod val="60000"/>
-                            <a:lumOff val="40000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </xdr:spPr>
-                      <xdr:style>
-                        <a:lnRef idx="2">
-                          <a:schemeClr val="accent1">
-                            <a:shade val="50000"/>
-                          </a:schemeClr>
-                        </a:lnRef>
-                        <a:fillRef idx="1">
-                          <a:schemeClr val="accent1"/>
-                        </a:fillRef>
-                        <a:effectRef idx="0">
-                          <a:schemeClr val="accent1"/>
-                        </a:effectRef>
-                        <a:fontRef idx="minor">
-                          <a:schemeClr val="lt1"/>
-                        </a:fontRef>
-                      </xdr:style>
-                      <xdr:txBody>
-                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:pPr algn="ctr"/>
-                          <a:r>
-                            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-ea"/>
-                              <a:ea typeface="+mn-ea"/>
-                            </a:rPr>
-                            <a:t>exist = 0</a:t>
-                          </a:r>
-                          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-ea"/>
-                            <a:ea typeface="+mn-ea"/>
-                          </a:endParaRPr>
-                        </a:p>
-                      </xdr:txBody>
-                    </xdr:sp>
-                  </xdr:grpSp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="13" name="フローチャート: 処理 12"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="3513669" y="3208865"/>
-                        <a:ext cx="1332000" cy="457531"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="flowChartProcess">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent1">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent1"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-ea"/>
-                            <a:ea typeface="+mn-ea"/>
-                          </a:rPr>
-                          <a:t>exist = 1</a:t>
-                        </a:r>
-                        <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-ea"/>
-                          <a:ea typeface="+mn-ea"/>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:cxnSp macro="">
-                  <xdr:nvCxnSpPr>
-                    <xdr:cNvPr id="11" name="AutoShape 57"/>
-                    <xdr:cNvCxnSpPr>
-                      <a:cxnSpLocks noChangeShapeType="1"/>
-                      <a:stCxn id="13" idx="2"/>
-                      <a:endCxn id="33" idx="1"/>
-                    </xdr:cNvCxnSpPr>
-                  </xdr:nvCxnSpPr>
-                  <xdr:spPr bwMode="auto">
-                    <a:xfrm>
-                      <a:off x="4179669" y="3666396"/>
-                      <a:ext cx="2541" cy="418217"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="straightConnector1">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                      </a:solidFill>
-                      <a:round/>
-                      <a:headEnd/>
-                      <a:tailEnd type="triangle" w="med" len="med"/>
-                    </a:ln>
-                    <a:extLst>
-                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                          <a:noFill/>
-                        </a14:hiddenFill>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:spPr>
-                </xdr:cxnSp>
-              </xdr:grpSp>
-            </xdr:grpSp>
-            <xdr:cxnSp macro="">
-              <xdr:nvCxnSpPr>
-                <xdr:cNvPr id="4" name="AutoShape 57"/>
-                <xdr:cNvCxnSpPr>
-                  <a:cxnSpLocks noChangeShapeType="1"/>
-                  <a:stCxn id="15" idx="2"/>
-                  <a:endCxn id="33" idx="5"/>
-                </xdr:cNvCxnSpPr>
-              </xdr:nvCxnSpPr>
-              <xdr:spPr bwMode="auto">
-                <a:xfrm rot="5400000">
-                  <a:off x="4040390" y="3583916"/>
-                  <a:ext cx="705166" cy="1139778"/>
-                </a:xfrm>
-                <a:prstGeom prst="bentConnector2">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="19050">
-                  <a:solidFill>
-                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:round/>
-                  <a:headEnd/>
-                  <a:tailEnd type="triangle" w="med" len="med"/>
-                </a:ln>
-                <a:extLst>
-                  <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                    <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a:noFill/>
-                    </a14:hiddenFill>
-                  </a:ext>
-                </a:extLst>
-              </xdr:spPr>
-            </xdr:cxnSp>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="43" name="フローチャート: データ 42"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4705573" y="474305"/>
-                <a:ext cx="1379678" cy="515808"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartInputOutput">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                    <a:latin typeface="+mn-ea"/>
-                    <a:ea typeface="+mn-ea"/>
-                  </a:rPr>
-                  <a:t>input</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                    <a:latin typeface="+mn-ea"/>
-                    <a:ea typeface="+mn-ea"/>
-                  </a:rPr>
-                  <a:t>code</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                  <a:latin typeface="+mn-ea"/>
-                  <a:ea typeface="+mn-ea"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="49" name="AutoShape 56"/>
-            <xdr:cNvCxnSpPr>
-              <a:cxnSpLocks noChangeShapeType="1"/>
-              <a:stCxn id="71" idx="2"/>
-              <a:endCxn id="32" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="3536362" y="1493912"/>
-              <a:ext cx="2789" cy="334882"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
+      <xdr:rowOff>111096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1121413" y="998483"/>
+          <a:ext cx="1158018" cy="235906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:noFill/>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="フローチャート : 定義済み処理 70"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="784861" y="1028700"/>
-            <a:ext cx="1684020" cy="549172"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartPredefinedProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t>商品照合</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>照合失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>578068</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="フローチャート : 定義済み処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1734207" y="2877208"/>
+          <a:ext cx="1156137" cy="440119"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>インタラクション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>分析</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="124" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2312276" y="2490950"/>
+          <a:ext cx="1350" cy="386258"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578068</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="フローチャート : 定義済み処理 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4046483" y="2870638"/>
+          <a:ext cx="1156137" cy="440119"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>インタラクション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>分析</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4624552" y="1996966"/>
+          <a:ext cx="1" cy="873672"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>575285</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>578448</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="124" idx="2"/>
+          <a:endCxn id="116" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2311766" y="3310758"/>
+          <a:ext cx="3163" cy="425973"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577042</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>578448</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="133" idx="2"/>
+          <a:endCxn id="115" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4628830" y="3304188"/>
+          <a:ext cx="1406" cy="432543"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>575285</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577483</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="116" idx="4"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2311766" y="4481227"/>
+          <a:ext cx="2198" cy="501081"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6417,967 +8189,297 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>272460</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>574947</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="フローチャート : 端子 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1748118" y="246529"/>
+          <a:ext cx="1157653" cy="248168"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>578826</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10564</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7435260" y="1265816"/>
-          <a:ext cx="3369900" cy="3951748"/>
-          <a:chOff x="729660" y="275216"/>
-          <a:chExt cx="3446100" cy="5226828"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="グループ化 2"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="729660" y="275216"/>
-            <a:ext cx="3446100" cy="5226828"/>
-            <a:chOff x="2639151" y="170329"/>
-            <a:chExt cx="3446100" cy="5310797"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="5" name="グループ化 4"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="2639151" y="170329"/>
-              <a:ext cx="3446100" cy="5310797"/>
-              <a:chOff x="2639151" y="170329"/>
-              <a:chExt cx="3446100" cy="5310797"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="7" name="グループ化 6"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="2639151" y="170329"/>
-                <a:ext cx="3328144" cy="5310797"/>
-                <a:chOff x="2307070" y="393999"/>
-                <a:chExt cx="3328144" cy="5194104"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="9" name="グループ化 8"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="2307070" y="393999"/>
-                  <a:ext cx="3328144" cy="5194104"/>
-                  <a:chOff x="3267959" y="306721"/>
-                  <a:chExt cx="3328144" cy="5111692"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="3585887" y="2723057"/>
-                    <a:ext cx="513231" cy="205868"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>ＹＥＳ</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="4987893" y="2310455"/>
-                    <a:ext cx="497862" cy="296984"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mj-ea"/>
-                        <a:ea typeface="+mj-ea"/>
-                      </a:rPr>
-                      <a:t>NO</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="13" name="グループ化 12"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="3267959" y="306721"/>
-                    <a:ext cx="3328144" cy="5111692"/>
-                    <a:chOff x="3278845" y="306721"/>
-                    <a:chExt cx="3328144" cy="5111692"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="14" name="グループ化 13"/>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="3278845" y="306721"/>
-                      <a:ext cx="3328144" cy="5111692"/>
-                      <a:chOff x="3278845" y="306721"/>
-                      <a:chExt cx="3328144" cy="5111692"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:grpSp>
-                    <xdr:nvGrpSpPr>
-                      <xdr:cNvPr id="16" name="グループ化 15"/>
-                      <xdr:cNvGrpSpPr/>
-                    </xdr:nvGrpSpPr>
-                    <xdr:grpSpPr>
-                      <a:xfrm>
-                        <a:off x="3278845" y="306721"/>
-                        <a:ext cx="3328144" cy="5111692"/>
-                        <a:chOff x="3251950" y="313764"/>
-                        <a:chExt cx="3328144" cy="5332650"/>
-                      </a:xfrm>
-                    </xdr:grpSpPr>
-                    <xdr:grpSp>
-                      <xdr:nvGrpSpPr>
-                        <xdr:cNvPr id="18" name="グループ化 17"/>
-                        <xdr:cNvGrpSpPr/>
-                      </xdr:nvGrpSpPr>
-                      <xdr:grpSpPr>
-                        <a:xfrm>
-                          <a:off x="3251950" y="313764"/>
-                          <a:ext cx="2655791" cy="5332650"/>
-                          <a:chOff x="3251950" y="313764"/>
-                          <a:chExt cx="2655791" cy="5332650"/>
-                        </a:xfrm>
-                      </xdr:grpSpPr>
-                      <xdr:cxnSp macro="">
-                        <xdr:nvCxnSpPr>
-                          <xdr:cNvPr id="20" name="AutoShape 56"/>
-                          <xdr:cNvCxnSpPr>
-                            <a:cxnSpLocks noChangeShapeType="1"/>
-                            <a:stCxn id="25" idx="2"/>
-                            <a:endCxn id="4" idx="0"/>
-                          </xdr:cNvCxnSpPr>
-                        </xdr:nvCxnSpPr>
-                        <xdr:spPr bwMode="auto">
-                          <a:xfrm flipH="1">
-                            <a:off x="4149161" y="755639"/>
-                            <a:ext cx="3742" cy="326864"/>
-                          </a:xfrm>
-                          <a:prstGeom prst="straightConnector1">
-                            <a:avLst/>
-                          </a:prstGeom>
-                          <a:noFill/>
-                          <a:ln w="19050">
-                            <a:solidFill>
-                              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                            </a:solidFill>
-                            <a:round/>
-                            <a:headEnd/>
-                            <a:tailEnd type="triangle" w="med" len="med"/>
-                          </a:ln>
-                          <a:extLst>
-                            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                <a:noFill/>
-                              </a14:hiddenFill>
-                            </a:ext>
-                          </a:extLst>
-                        </xdr:spPr>
-                      </xdr:cxnSp>
-                      <xdr:grpSp>
-                        <xdr:nvGrpSpPr>
-                          <xdr:cNvPr id="21" name="グループ化 20"/>
-                          <xdr:cNvGrpSpPr/>
-                        </xdr:nvGrpSpPr>
-                        <xdr:grpSpPr>
-                          <a:xfrm>
-                            <a:off x="3251950" y="313764"/>
-                            <a:ext cx="2655791" cy="5332650"/>
-                            <a:chOff x="3332631" y="977153"/>
-                            <a:chExt cx="2655791" cy="5332650"/>
-                          </a:xfrm>
-                        </xdr:grpSpPr>
-                        <xdr:grpSp>
-                          <xdr:nvGrpSpPr>
-                            <xdr:cNvPr id="22" name="グループ化 21"/>
-                            <xdr:cNvGrpSpPr/>
-                          </xdr:nvGrpSpPr>
-                          <xdr:grpSpPr>
-                            <a:xfrm>
-                              <a:off x="3332631" y="977153"/>
-                              <a:ext cx="2655791" cy="4502968"/>
-                              <a:chOff x="831477" y="409426"/>
-                              <a:chExt cx="2655791" cy="4663705"/>
-                            </a:xfrm>
-                          </xdr:grpSpPr>
-                          <xdr:sp macro="" textlink="">
-                            <xdr:nvSpPr>
-                              <xdr:cNvPr id="25" name="フローチャート : 端子 24"/>
-                              <xdr:cNvSpPr/>
-                            </xdr:nvSpPr>
-                            <xdr:spPr>
-                              <a:xfrm>
-                                <a:off x="1191410" y="409426"/>
-                                <a:ext cx="1082040" cy="457648"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="flowChartTerminator">
-                                <a:avLst/>
-                              </a:prstGeom>
-                            </xdr:spPr>
-                            <xdr:style>
-                              <a:lnRef idx="0">
-                                <a:schemeClr val="accent2"/>
-                              </a:lnRef>
-                              <a:fillRef idx="3">
-                                <a:schemeClr val="accent2"/>
-                              </a:fillRef>
-                              <a:effectRef idx="3">
-                                <a:schemeClr val="accent2"/>
-                              </a:effectRef>
-                              <a:fontRef idx="minor">
-                                <a:schemeClr val="lt1"/>
-                              </a:fontRef>
-                            </xdr:style>
-                            <xdr:txBody>
-                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-                              <a:lstStyle/>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="bg1"/>
-                                    </a:solidFill>
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                  </a:rPr>
-                                  <a:t>Start</a:t>
-                                </a:r>
-                                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="bg1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-ea"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                </a:endParaRPr>
-                              </a:p>
-                            </xdr:txBody>
-                          </xdr:sp>
-                          <xdr:sp macro="" textlink="">
-                            <xdr:nvSpPr>
-                              <xdr:cNvPr id="26" name="フローチャート : 判断 25"/>
-                              <xdr:cNvSpPr/>
-                            </xdr:nvSpPr>
-                            <xdr:spPr>
-                              <a:xfrm>
-                                <a:off x="831477" y="2134159"/>
-                                <a:ext cx="1800000" cy="921409"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="flowChartDecision">
-                                <a:avLst/>
-                              </a:prstGeom>
-                            </xdr:spPr>
-                            <xdr:style>
-                              <a:lnRef idx="1">
-                                <a:schemeClr val="accent6"/>
-                              </a:lnRef>
-                              <a:fillRef idx="2">
-                                <a:schemeClr val="accent6"/>
-                              </a:fillRef>
-                              <a:effectRef idx="1">
-                                <a:schemeClr val="accent6"/>
-                              </a:effectRef>
-                              <a:fontRef idx="minor">
-                                <a:schemeClr val="dk1"/>
-                              </a:fontRef>
-                            </xdr:style>
-                            <xdr:txBody>
-                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-                              <a:lstStyle/>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                  </a:rPr>
-                                  <a:t>該当の</a:t>
-                                </a:r>
-                                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
-                                  <a:latin typeface="+mn-ea"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                </a:endParaRPr>
-                              </a:p>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                  </a:rPr>
-                                  <a:t>商品有り？</a:t>
-                                </a:r>
-                              </a:p>
-                            </xdr:txBody>
-                          </xdr:sp>
-                          <xdr:sp macro="" textlink="">
-                            <xdr:nvSpPr>
-                              <xdr:cNvPr id="27" name="フローチャート: データ 26"/>
-                              <xdr:cNvSpPr/>
-                            </xdr:nvSpPr>
-                            <xdr:spPr>
-                              <a:xfrm>
-                                <a:off x="969032" y="4491305"/>
-                                <a:ext cx="1531620" cy="581826"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="flowChartInputOutput">
-                                <a:avLst/>
-                              </a:prstGeom>
-                            </xdr:spPr>
-                            <xdr:style>
-                              <a:lnRef idx="1">
-                                <a:schemeClr val="dk1"/>
-                              </a:lnRef>
-                              <a:fillRef idx="2">
-                                <a:schemeClr val="dk1"/>
-                              </a:fillRef>
-                              <a:effectRef idx="1">
-                                <a:schemeClr val="dk1"/>
-                              </a:effectRef>
-                              <a:fontRef idx="minor">
-                                <a:schemeClr val="dk1"/>
-                              </a:fontRef>
-                            </xdr:style>
-                            <xdr:txBody>
-                              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-                              <a:lstStyle/>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                  </a:rPr>
-                                  <a:t>output</a:t>
-                                </a:r>
-                              </a:p>
-                              <a:p>
-                                <a:pPr algn="ctr"/>
-                                <a:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                    <a:latin typeface="+mn-ea"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                  </a:rPr>
-                                  <a:t>exist</a:t>
-                                </a:r>
-                                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                  <a:latin typeface="+mn-ea"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                </a:endParaRPr>
-                              </a:p>
-                            </xdr:txBody>
-                          </xdr:sp>
-                          <xdr:cxnSp macro="">
-                            <xdr:nvCxnSpPr>
-                              <xdr:cNvPr id="28" name="AutoShape 57"/>
-                              <xdr:cNvCxnSpPr>
-                                <a:cxnSpLocks noChangeShapeType="1"/>
-                                <a:stCxn id="26" idx="3"/>
-                                <a:endCxn id="19" idx="0"/>
-                              </xdr:cNvCxnSpPr>
-                            </xdr:nvCxnSpPr>
-                            <xdr:spPr bwMode="auto">
-                              <a:xfrm>
-                                <a:off x="2631477" y="2594864"/>
-                                <a:ext cx="855791" cy="954730"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="bentConnector2">
-                                <a:avLst/>
-                              </a:prstGeom>
-                              <a:noFill/>
-                              <a:ln w="19050">
-                                <a:solidFill>
-                                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                                </a:solidFill>
-                                <a:round/>
-                                <a:headEnd/>
-                                <a:tailEnd type="triangle" w="med" len="med"/>
-                              </a:ln>
-                              <a:extLst>
-                                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                    <a:noFill/>
-                                  </a14:hiddenFill>
-                                </a:ext>
-                              </a:extLst>
-                            </xdr:spPr>
-                          </xdr:cxnSp>
-                          <xdr:cxnSp macro="">
-                            <xdr:nvCxnSpPr>
-                              <xdr:cNvPr id="29" name="AutoShape 57"/>
-                              <xdr:cNvCxnSpPr>
-                                <a:cxnSpLocks noChangeShapeType="1"/>
-                                <a:stCxn id="26" idx="2"/>
-                                <a:endCxn id="17" idx="0"/>
-                              </xdr:cNvCxnSpPr>
-                            </xdr:nvCxnSpPr>
-                            <xdr:spPr bwMode="auto">
-                              <a:xfrm>
-                                <a:off x="1731477" y="3055568"/>
-                                <a:ext cx="824" cy="489520"/>
-                              </a:xfrm>
-                              <a:prstGeom prst="straightConnector1">
-                                <a:avLst/>
-                              </a:prstGeom>
-                              <a:noFill/>
-                              <a:ln w="19050">
-                                <a:solidFill>
-                                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                                </a:solidFill>
-                                <a:round/>
-                                <a:headEnd/>
-                                <a:tailEnd type="triangle" w="med" len="med"/>
-                              </a:ln>
-                              <a:extLst>
-                                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                    <a:noFill/>
-                                  </a14:hiddenFill>
-                                </a:ext>
-                              </a:extLst>
-                            </xdr:spPr>
-                          </xdr:cxnSp>
-                        </xdr:grpSp>
-                        <xdr:cxnSp macro="">
-                          <xdr:nvCxnSpPr>
-                            <xdr:cNvPr id="23" name="AutoShape 57"/>
-                            <xdr:cNvCxnSpPr>
-                              <a:cxnSpLocks noChangeShapeType="1"/>
-                              <a:stCxn id="27" idx="4"/>
-                              <a:endCxn id="24" idx="0"/>
-                            </xdr:cNvCxnSpPr>
-                          </xdr:nvCxnSpPr>
-                          <xdr:spPr bwMode="auto">
-                            <a:xfrm flipH="1">
-                              <a:off x="4231563" y="5480121"/>
-                              <a:ext cx="4433" cy="387807"/>
-                            </a:xfrm>
-                            <a:prstGeom prst="straightConnector1">
-                              <a:avLst/>
-                            </a:prstGeom>
-                            <a:noFill/>
-                            <a:ln w="19050">
-                              <a:solidFill>
-                                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                              </a:solidFill>
-                              <a:round/>
-                              <a:headEnd/>
-                              <a:tailEnd type="triangle" w="med" len="med"/>
-                            </a:ln>
-                            <a:extLst>
-                              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                                  <a:noFill/>
-                                </a14:hiddenFill>
-                              </a:ext>
-                            </a:extLst>
-                          </xdr:spPr>
-                        </xdr:cxnSp>
-                        <xdr:sp macro="" textlink="">
-                          <xdr:nvSpPr>
-                            <xdr:cNvPr id="24" name="フローチャート : 端子 23"/>
-                            <xdr:cNvSpPr/>
-                          </xdr:nvSpPr>
-                          <xdr:spPr>
-                            <a:xfrm>
-                              <a:off x="3690543" y="5867928"/>
-                              <a:ext cx="1082040" cy="441875"/>
-                            </a:xfrm>
-                            <a:prstGeom prst="flowChartTerminator">
-                              <a:avLst/>
-                            </a:prstGeom>
-                          </xdr:spPr>
-                          <xdr:style>
-                            <a:lnRef idx="0">
-                              <a:schemeClr val="accent2"/>
-                            </a:lnRef>
-                            <a:fillRef idx="3">
-                              <a:schemeClr val="accent2"/>
-                            </a:fillRef>
-                            <a:effectRef idx="3">
-                              <a:schemeClr val="accent2"/>
-                            </a:effectRef>
-                            <a:fontRef idx="minor">
-                              <a:schemeClr val="lt1"/>
-                            </a:fontRef>
-                          </xdr:style>
-                          <xdr:txBody>
-                            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-                            <a:lstStyle/>
-                            <a:p>
-                              <a:pPr algn="ctr"/>
-                              <a:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="bg1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-ea"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                                </a:rPr>
-                                <a:t>End</a:t>
-                              </a:r>
-                              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="bg1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-ea"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                              </a:endParaRPr>
-                            </a:p>
-                          </xdr:txBody>
-                        </xdr:sp>
-                      </xdr:grpSp>
-                    </xdr:grpSp>
-                    <xdr:sp macro="" textlink="">
-                      <xdr:nvSpPr>
-                        <xdr:cNvPr id="19" name="フローチャート: 処理 18"/>
-                        <xdr:cNvSpPr/>
-                      </xdr:nvSpPr>
-                      <xdr:spPr>
-                        <a:xfrm>
-                          <a:off x="5235387" y="3345707"/>
-                          <a:ext cx="1344707" cy="466164"/>
-                        </a:xfrm>
-                        <a:prstGeom prst="flowChartProcess">
-                          <a:avLst/>
-                        </a:prstGeom>
-                        <a:solidFill>
-                          <a:schemeClr val="tx2">
-                            <a:lumMod val="60000"/>
-                            <a:lumOff val="40000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </xdr:spPr>
-                      <xdr:style>
-                        <a:lnRef idx="2">
-                          <a:schemeClr val="accent1">
-                            <a:shade val="50000"/>
-                          </a:schemeClr>
-                        </a:lnRef>
-                        <a:fillRef idx="1">
-                          <a:schemeClr val="accent1"/>
-                        </a:fillRef>
-                        <a:effectRef idx="0">
-                          <a:schemeClr val="accent1"/>
-                        </a:effectRef>
-                        <a:fontRef idx="minor">
-                          <a:schemeClr val="lt1"/>
-                        </a:fontRef>
-                      </xdr:style>
-                      <xdr:txBody>
-                        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:pPr algn="ctr"/>
-                          <a:r>
-                            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-ea"/>
-                              <a:ea typeface="+mn-ea"/>
-                            </a:rPr>
-                            <a:t>exist = 0</a:t>
-                          </a:r>
-                          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-ea"/>
-                            <a:ea typeface="+mn-ea"/>
-                          </a:endParaRPr>
-                        </a:p>
-                      </xdr:txBody>
-                    </xdr:sp>
-                  </xdr:grpSp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="17" name="フローチャート: 処理 16"/>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="3513669" y="3208865"/>
-                        <a:ext cx="1332000" cy="457531"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="flowChartProcess">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent1">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent1"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-ea"/>
-                            <a:ea typeface="+mn-ea"/>
-                          </a:rPr>
-                          <a:t>exist = 1</a:t>
-                        </a:r>
-                        <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-ea"/>
-                          <a:ea typeface="+mn-ea"/>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-                <xdr:cxnSp macro="">
-                  <xdr:nvCxnSpPr>
-                    <xdr:cNvPr id="15" name="AutoShape 57"/>
-                    <xdr:cNvCxnSpPr>
-                      <a:cxnSpLocks noChangeShapeType="1"/>
-                      <a:stCxn id="17" idx="2"/>
-                      <a:endCxn id="27" idx="1"/>
-                    </xdr:cNvCxnSpPr>
-                  </xdr:nvCxnSpPr>
-                  <xdr:spPr bwMode="auto">
-                    <a:xfrm>
-                      <a:off x="4179669" y="3666396"/>
-                      <a:ext cx="2541" cy="418217"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="straightConnector1">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                      </a:solidFill>
-                      <a:round/>
-                      <a:headEnd/>
-                      <a:tailEnd type="triangle" w="med" len="med"/>
-                    </a:ln>
-                    <a:extLst>
-                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                          <a:noFill/>
-                        </a14:hiddenFill>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:spPr>
-                </xdr:cxnSp>
-              </xdr:grpSp>
-            </xdr:grpSp>
-            <xdr:cxnSp macro="">
-              <xdr:nvCxnSpPr>
-                <xdr:cNvPr id="10" name="AutoShape 57"/>
-                <xdr:cNvCxnSpPr>
-                  <a:cxnSpLocks noChangeShapeType="1"/>
-                  <a:stCxn id="19" idx="2"/>
-                  <a:endCxn id="27" idx="5"/>
-                </xdr:cNvCxnSpPr>
-              </xdr:nvCxnSpPr>
-              <xdr:spPr bwMode="auto">
-                <a:xfrm rot="5400000">
-                  <a:off x="4040390" y="3583916"/>
-                  <a:ext cx="705166" cy="1139778"/>
-                </a:xfrm>
-                <a:prstGeom prst="bentConnector2">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="19050">
-                  <a:solidFill>
-                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:round/>
-                  <a:headEnd/>
-                  <a:tailEnd type="triangle" w="med" len="med"/>
-                </a:ln>
-                <a:extLst>
-                  <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                    <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                      <a:noFill/>
-                    </a14:hiddenFill>
-                  </a:ext>
-                </a:extLst>
-              </xdr:spPr>
-            </xdr:cxnSp>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="フローチャート: データ 7"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4705573" y="474305"/>
-                <a:ext cx="1379678" cy="515808"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartInputOutput">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                    <a:latin typeface="+mn-ea"/>
-                    <a:ea typeface="+mn-ea"/>
-                  </a:rPr>
-                  <a:t>input</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                    <a:latin typeface="+mn-ea"/>
-                    <a:ea typeface="+mn-ea"/>
-                  </a:rPr>
-                  <a:t>code</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                  <a:latin typeface="+mn-ea"/>
-                  <a:ea typeface="+mn-ea"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="6" name="AutoShape 56"/>
-            <xdr:cNvCxnSpPr>
-              <a:cxnSpLocks noChangeShapeType="1"/>
-              <a:stCxn id="4" idx="2"/>
-              <a:endCxn id="26" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="3536362" y="1493912"/>
-              <a:ext cx="2789" cy="334882"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
+      <xdr:rowOff>5465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2329045" y="1130606"/>
+          <a:ext cx="4580" cy="369582"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>578826</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>578827</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="30" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2326944" y="494697"/>
+          <a:ext cx="1" cy="373674"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13373</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>125015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="フローチャート : 定義済み処理 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1180186" y="875109"/>
+          <a:ext cx="2308345" cy="248399"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レジ窓口への誘導をおこなう</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>572260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="フローチャート : 端子 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1729914" y="1495011"/>
+          <a:ext cx="1164221" cy="248797"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:noFill/>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="フローチャート : 定義済み処理 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="784861" y="1028700"/>
-            <a:ext cx="1684020" cy="549172"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartPredefinedProcess">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t>商品照合</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>End</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7419,7 +8521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7454,7 +8556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7665,13 +8767,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="13" width="8.77734375" style="1"/>
-    <col min="14" max="24" width="8.77734375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="13" width="8.7109375" style="1"/>
+    <col min="14" max="24" width="8.7109375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -7686,13 +8788,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -7707,13 +8810,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -7728,11 +8831,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7746,11 +8849,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
